--- a/input/Set_and_Control_Parameters.xlsx
+++ b/input/Set_and_Control_Parameters.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="195">
   <si>
     <t xml:space="preserve">Parameter</t>
   </si>
@@ -459,9 +459,6 @@
   </si>
   <si>
     <t xml:space="preserve">Skip years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009, 2010</t>
   </si>
   <si>
     <t xml:space="preserve">Years that are sorted out before further data processing due to large deviations from the pattern of historical data.</t>
@@ -808,7 +805,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -857,23 +854,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProps107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps112.xml><?xml version="1.0" encoding="utf-8"?>
@@ -893,7 +890,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProps116.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps117.xml><?xml version="1.0" encoding="utf-8"?>
@@ -901,7 +898,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProps118.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps119.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,35 +910,35 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProps120.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps122.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps123.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps124.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps125.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps126.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps128.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1077,7 +1074,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps30.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1121,7 +1118,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1165,7 +1162,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7565,8 +7562,8 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>12</v>
@@ -7580,8 +7577,8 @@
         <v>13</v>
       </c>
       <c r="C5" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>14</v>
@@ -7595,8 +7592,8 @@
         <v>15</v>
       </c>
       <c r="C6" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>16</v>
@@ -10682,7 +10679,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10807,11 +10804,11 @@
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>136</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>2009</v>
@@ -10819,7 +10816,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
@@ -10828,7 +10825,7 @@
         <v>2019</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>2019</v>
@@ -10958,8 +10955,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10978,39 +10975,39 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>146</v>
-      </c>
       <c r="J1" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="12" t="b">
@@ -11020,606 +11017,591 @@
       <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="13" t="n">
+      <c r="J2" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="12" t="b">
+      <c r="C4" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="J5" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="12" t="n">
+        <v>100</v>
+      </c>
+      <c r="J11" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="12" t="n">
+        <v>100</v>
+      </c>
+      <c r="J12" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="12" t="n">
+        <v>100</v>
+      </c>
+      <c r="J13" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="12" t="n">
+        <v>100</v>
+      </c>
+      <c r="J14" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="12" t="n">
+        <v>100</v>
+      </c>
+      <c r="J15" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">D11</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="12" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">D12</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">D13</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">D14</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">D15</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="13" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="12" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="12" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="J5" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="12" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="12" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="12" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="12" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="12" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="12" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="J11" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="12" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="J12" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="12" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="J13" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="12" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="J14" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="12" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="J15" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="12" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">D11</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="13" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="F16" s="9" t="n">
-        <f aca="false">100-F11</f>
-        <v>95</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="12" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">D12</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9" t="n">
-        <f aca="false">100-F12</f>
-        <v>100</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="12" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">D13</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="13" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="F18" s="9" t="n">
-        <f aca="false">100-F13</f>
-        <v>100</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="12" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">D14</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9" t="n">
-        <f aca="false">100-F14</f>
-        <v>100</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="12" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <f aca="false">D15</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9" t="n">
-        <f aca="false">100-F15</f>
-        <v>100</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="12" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="12" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="13" t="n">
+      <c r="E22" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="13" t="n">
+      <c r="J22" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="12" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="C23" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0.33</v>
       </c>
-      <c r="E23" s="13" t="n">
+      <c r="E23" s="12" t="n">
         <v>0.33</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="13" t="n">
+      <c r="J23" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="4" t="n">
@@ -11632,7 +11614,7 @@
         <v>6</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>6</v>
@@ -12200,7 +12182,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>123</v>
@@ -12211,13 +12193,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.45</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.45</v>
@@ -12225,13 +12207,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.83115</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0.83115</v>
@@ -12239,13 +12221,13 @@
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -12253,13 +12235,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0.35</v>
@@ -12319,24 +12301,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>185</v>
-      </c>
       <c r="E2" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
@@ -12345,7 +12327,7 @@
         <v>123</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>123</v>
@@ -12353,9 +12335,9 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="7" t="b">
+        <v>187</v>
+      </c>
+      <c r="C4" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12365,7 +12347,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
@@ -12374,7 +12356,7 @@
         <v>2018</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2018</v>
@@ -12469,7 +12451,7 @@
       <c r="A2" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="7" t="b">
+      <c r="C2" s="0" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12479,14 +12461,14 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>25</v>
@@ -12494,18 +12476,18 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
@@ -12514,7 +12496,7 @@
         <v>2019</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2019</v>
@@ -12522,7 +12504,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -12531,7 +12513,7 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0.5</v>
@@ -12620,17 +12602,17 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="12" t="b">
+      <c r="C2" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12642,67 +12624,67 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="12" t="b">
+      <c r="C4" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="12" t="b">
+      <c r="C5" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="12" t="b">
+      <c r="C6" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="12" t="b">
+      <c r="C7" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="12" t="b">
+      <c r="C8" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="12" t="b">
+      <c r="C9" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="12" t="b">
+      <c r="C10" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="12" t="b">
+      <c r="C11" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="12" t="b">
+      <c r="C12" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="12" t="b">
+      <c r="C13" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="12" t="b">
+      <c r="C14" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/input/Set_and_Control_Parameters.xlsx
+++ b/input/Set_and_Control_Parameters.xlsx
@@ -801,7 +801,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10679,7 +10679,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10955,7 +10955,7 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -12618,7 +12618,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="12" t="b">
+      <c r="C3" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/input/Set_and_Control_Parameters.xlsx
+++ b/input/Set_and_Control_Parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralSettings" sheetId="1" state="visible" r:id="rId2"/>
@@ -646,9 +646,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -752,7 +753,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -761,11 +762,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -773,7 +778,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -781,7 +786,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -801,11 +806,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -850,47 +859,47 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProps106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps112.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps114.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps116.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps117.xml><?xml version="1.0" encoding="utf-8"?>
@@ -898,11 +907,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProps118.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps119.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -910,31 +919,31 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProps120.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps122.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps123.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps124.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps125.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps126.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps128.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1386,13 +1395,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>15120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>12600</xdr:rowOff>
+          <xdr:rowOff>28080</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1430,13 +1439,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>15480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12600</xdr:rowOff>
+          <xdr:rowOff>28080</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1474,13 +1483,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>15480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>12600</xdr:rowOff>
+          <xdr:rowOff>27720</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1518,13 +1527,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>15120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>12600</xdr:rowOff>
+          <xdr:rowOff>27720</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1562,13 +1571,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>15120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>12600</xdr:rowOff>
+          <xdr:rowOff>27720</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1606,13 +1615,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>15120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>12600</xdr:rowOff>
+          <xdr:rowOff>27720</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1650,13 +1659,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>15120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>12600</xdr:rowOff>
+          <xdr:rowOff>28080</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1694,13 +1703,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>15120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>12600</xdr:rowOff>
+          <xdr:rowOff>27720</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1738,13 +1747,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>15480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>6480</xdr:rowOff>
+          <xdr:rowOff>21600</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1793,7 +1802,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>-309960</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>12960</xdr:rowOff>
+          <xdr:rowOff>28440</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2766,7 +2775,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>-82800</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>15120</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -6593,13 +6602,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>453600</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>15120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-612360</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>-69840</xdr:rowOff>
+          <xdr:rowOff>-54720</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -6648,7 +6657,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>6840</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>19080</xdr:rowOff>
+          <xdr:rowOff>34200</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -6741,7 +6750,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>-501480</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>12600</xdr:rowOff>
+          <xdr:rowOff>28080</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -7312,13 +7321,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>1527480</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>114480</xdr:rowOff>
+          <xdr:rowOff>129600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>429840</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>19080</xdr:rowOff>
+          <xdr:rowOff>34200</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -7525,20 +7534,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>2018</v>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>2050</v>
       </c>
     </row>
@@ -7546,14 +7555,14 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="b">
+      <c r="C3" s="4" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7561,14 +7570,14 @@
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="b">
+      <c r="C4" s="4" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7576,14 +7585,14 @@
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="b">
+      <c r="C5" s="4" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7591,14 +7600,14 @@
       <c r="A6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="b">
+      <c r="C6" s="4" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7606,14 +7615,14 @@
       <c r="A7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="b">
+      <c r="C7" s="4" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7621,14 +7630,14 @@
       <c r="A8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="b">
+      <c r="C8" s="4" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7636,29 +7645,29 @@
       <c r="A9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="b">
+      <c r="C9" s="4" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5" t="b">
+      <c r="C10" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7669,13 +7678,13 @@
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>2016</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>2016</v>
       </c>
     </row>
@@ -7683,14 +7692,14 @@
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7" t="b">
+      <c r="C12" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7722,13 +7731,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>15120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12600</xdr:rowOff>
+                    <xdr:rowOff>28080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7744,13 +7753,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>15480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12600</xdr:rowOff>
+                    <xdr:rowOff>28080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7766,13 +7775,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>15480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>12600</xdr:rowOff>
+                    <xdr:rowOff>27720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7788,13 +7797,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>15120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>12600</xdr:rowOff>
+                    <xdr:rowOff>27720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7810,13 +7819,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>15120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>12600</xdr:rowOff>
+                    <xdr:rowOff>27720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7832,13 +7841,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>15120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>12600</xdr:rowOff>
+                    <xdr:rowOff>27720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7854,13 +7863,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>15120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>12600</xdr:rowOff>
+                    <xdr:rowOff>28080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7876,13 +7885,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>15120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>12600</xdr:rowOff>
+                    <xdr:rowOff>27720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7898,13 +7907,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>15480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>6480</xdr:rowOff>
+                    <xdr:rowOff>21600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7938,7 +7947,7 @@
       <c r="A1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -7947,13 +7956,13 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="7" t="b">
+      <c r="C2" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7962,7 +7971,7 @@
       <c r="A3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7" t="b">
+      <c r="C3" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7971,7 +7980,7 @@
       <c r="A4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="7" t="b">
+      <c r="C4" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7980,7 +7989,7 @@
       <c r="A5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="7" t="b">
+      <c r="C5" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7989,7 +7998,7 @@
       <c r="A6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="7" t="b">
+      <c r="C6" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7998,7 +8007,7 @@
       <c r="A7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="7" t="b">
+      <c r="C7" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8007,7 +8016,7 @@
       <c r="A8" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="7" t="b">
+      <c r="C8" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8016,7 +8025,7 @@
       <c r="A9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="7" t="b">
+      <c r="C9" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8025,7 +8034,7 @@
       <c r="A10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7" t="b">
+      <c r="C10" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8034,7 +8043,7 @@
       <c r="A11" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="7" t="b">
+      <c r="C11" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8043,7 +8052,7 @@
       <c r="A12" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="7" t="b">
+      <c r="C12" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8052,7 +8061,7 @@
       <c r="A13" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="7" t="b">
+      <c r="C13" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8061,7 +8070,7 @@
       <c r="A14" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="7" t="b">
+      <c r="C14" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8070,7 +8079,7 @@
       <c r="A15" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="7" t="b">
+      <c r="C15" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8079,7 +8088,7 @@
       <c r="A16" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="7" t="b">
+      <c r="C16" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8088,7 +8097,7 @@
       <c r="A17" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="7" t="b">
+      <c r="C17" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8097,7 +8106,7 @@
       <c r="A18" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="7" t="b">
+      <c r="C18" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8106,7 +8115,7 @@
       <c r="A19" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="7" t="b">
+      <c r="C19" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8115,7 +8124,7 @@
       <c r="A20" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="7" t="b">
+      <c r="C20" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8124,7 +8133,7 @@
       <c r="A21" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="7" t="b">
+      <c r="C21" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8133,7 +8142,7 @@
       <c r="A22" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="7" t="b">
+      <c r="C22" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8142,7 +8151,7 @@
       <c r="A23" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="7" t="b">
+      <c r="C23" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8151,7 +8160,7 @@
       <c r="A24" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="7" t="b">
+      <c r="C24" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8160,7 +8169,7 @@
       <c r="A25" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="7" t="b">
+      <c r="C25" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8169,7 +8178,7 @@
       <c r="A26" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="7" t="b">
+      <c r="C26" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8178,7 +8187,7 @@
       <c r="A27" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="7" t="b">
+      <c r="C27" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8187,7 +8196,7 @@
       <c r="A28" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="7" t="b">
+      <c r="C28" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8196,7 +8205,7 @@
       <c r="A29" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="7" t="b">
+      <c r="C29" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8205,7 +8214,7 @@
       <c r="A30" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="7" t="b">
+      <c r="C30" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8214,7 +8223,7 @@
       <c r="A31" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="7" t="b">
+      <c r="C31" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8223,7 +8232,7 @@
       <c r="A32" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="7" t="b">
+      <c r="C32" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8232,7 +8241,7 @@
       <c r="A33" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="7" t="b">
+      <c r="C33" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8241,7 +8250,7 @@
       <c r="A34" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="7" t="b">
+      <c r="C34" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8250,7 +8259,7 @@
       <c r="A35" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="7" t="b">
+      <c r="C35" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8259,7 +8268,7 @@
       <c r="A36" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="7" t="b">
+      <c r="C36" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8271,7 +8280,7 @@
       <c r="A37" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="7" t="b">
+      <c r="C37" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8283,7 +8292,7 @@
       <c r="A38" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="7" t="b">
+      <c r="C38" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8292,7 +8301,7 @@
       <c r="A39" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="7" t="b">
+      <c r="C39" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8301,7 +8310,7 @@
       <c r="A40" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="7" t="b">
+      <c r="C40" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8310,7 +8319,7 @@
       <c r="A41" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="7" t="b">
+      <c r="C41" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8319,7 +8328,7 @@
       <c r="A42" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="7" t="b">
+      <c r="C42" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8328,7 +8337,7 @@
       <c r="A43" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="7" t="b">
+      <c r="C43" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8337,7 +8346,7 @@
       <c r="A44" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="7" t="b">
+      <c r="C44" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8346,7 +8355,7 @@
       <c r="A45" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="7" t="b">
+      <c r="C45" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8355,7 +8364,7 @@
       <c r="A46" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="7" t="b">
+      <c r="C46" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8364,7 +8373,7 @@
       <c r="A47" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="7" t="b">
+      <c r="C47" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8373,7 +8382,7 @@
       <c r="A48" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="7" t="b">
+      <c r="C48" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8382,7 +8391,7 @@
       <c r="A49" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="7" t="b">
+      <c r="C49" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8391,7 +8400,7 @@
       <c r="A50" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="7" t="b">
+      <c r="C50" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8400,7 +8409,7 @@
       <c r="A51" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="7" t="b">
+      <c r="C51" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8409,7 +8418,7 @@
       <c r="A52" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="7" t="b">
+      <c r="C52" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8418,7 +8427,7 @@
       <c r="A53" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="7" t="b">
+      <c r="C53" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8427,7 +8436,7 @@
       <c r="A54" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="7" t="b">
+      <c r="C54" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8436,7 +8445,7 @@
       <c r="A55" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="7" t="b">
+      <c r="C55" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8445,7 +8454,7 @@
       <c r="A56" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="7" t="b">
+      <c r="C56" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8454,7 +8463,7 @@
       <c r="A57" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="7" t="b">
+      <c r="C57" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8463,7 +8472,7 @@
       <c r="A58" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="7" t="b">
+      <c r="C58" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8472,7 +8481,7 @@
       <c r="A59" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="7" t="b">
+      <c r="C59" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8481,7 +8490,7 @@
       <c r="A60" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="7" t="b">
+      <c r="C60" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8490,7 +8499,7 @@
       <c r="A61" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="7" t="b">
+      <c r="C61" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8499,7 +8508,7 @@
       <c r="A62" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="7" t="b">
+      <c r="C62" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8508,7 +8517,7 @@
       <c r="A63" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="7" t="b">
+      <c r="C63" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8517,7 +8526,7 @@
       <c r="A64" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="7" t="b">
+      <c r="C64" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8526,7 +8535,7 @@
       <c r="A65" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="7" t="b">
+      <c r="C65" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8535,7 +8544,7 @@
       <c r="A66" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="7" t="b">
+      <c r="C66" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8544,7 +8553,7 @@
       <c r="A67" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="7" t="b">
+      <c r="C67" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8553,7 +8562,7 @@
       <c r="A68" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="7" t="b">
+      <c r="C68" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8562,7 +8571,7 @@
       <c r="A69" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="7" t="b">
+      <c r="C69" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8571,7 +8580,7 @@
       <c r="A70" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="7" t="b">
+      <c r="C70" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8580,7 +8589,7 @@
       <c r="A71" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="7" t="b">
+      <c r="C71" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8589,7 +8598,7 @@
       <c r="A72" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C72" s="7" t="b">
+      <c r="C72" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8598,7 +8607,7 @@
       <c r="A73" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="7" t="b">
+      <c r="C73" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8607,7 +8616,7 @@
       <c r="A74" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="7" t="b">
+      <c r="C74" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8616,7 +8625,7 @@
       <c r="A75" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="7" t="b">
+      <c r="C75" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8625,7 +8634,7 @@
       <c r="A76" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="7" t="b">
+      <c r="C76" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8634,7 +8643,7 @@
       <c r="A77" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="7" t="b">
+      <c r="C77" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8643,7 +8652,7 @@
       <c r="A78" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C78" s="7" t="b">
+      <c r="C78" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8652,7 +8661,7 @@
       <c r="A79" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="C79" s="7" t="b">
+      <c r="C79" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8661,7 +8670,7 @@
       <c r="A80" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C80" s="7" t="b">
+      <c r="C80" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8670,7 +8679,7 @@
       <c r="A81" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="7" t="b">
+      <c r="C81" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8679,7 +8688,7 @@
       <c r="A82" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C82" s="7" t="b">
+      <c r="C82" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8688,7 +8697,7 @@
       <c r="A83" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C83" s="7" t="b">
+      <c r="C83" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8697,7 +8706,7 @@
       <c r="A84" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C84" s="7" t="b">
+      <c r="C84" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8706,7 +8715,7 @@
       <c r="A85" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="C85" s="7" t="b">
+      <c r="C85" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8715,7 +8724,7 @@
       <c r="A86" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C86" s="7" t="b">
+      <c r="C86" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8724,7 +8733,7 @@
       <c r="A87" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C87" s="7" t="b">
+      <c r="C87" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8733,7 +8742,7 @@
       <c r="A88" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C88" s="7" t="b">
+      <c r="C88" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8766,7 +8775,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>-82800</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>15120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10678,8 +10687,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10713,7 +10722,7 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -10727,7 +10736,7 @@
       <c r="A3" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="7" t="b">
+      <c r="C3" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -10742,7 +10751,7 @@
       <c r="A4" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="7" t="b">
+      <c r="C4" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10757,7 +10766,7 @@
       <c r="A5" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="7" t="b">
+      <c r="C5" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10786,7 +10795,7 @@
       <c r="A7" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="7" t="b">
+      <c r="C7" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10863,13 +10872,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1527480</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>114480</xdr:rowOff>
+                    <xdr:rowOff>129600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>429840</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>19080</xdr:rowOff>
+                    <xdr:rowOff>34200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10955,8 +10964,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10980,28 +10989,28 @@
       <c r="B1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>142</v>
       </c>
     </row>
@@ -11010,26 +11019,25 @@
         <v>146</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="12" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="C2" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12" t="n">
+      <c r="J2" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11039,25 +11047,24 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11066,25 +11073,24 @@
         <v>149</v>
       </c>
       <c r="C4" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="12" t="n">
+      <c r="J4" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11093,13 +11099,12 @@
         <v>150</v>
       </c>
       <c r="C5" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="14" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -11108,10 +11113,10 @@
       <c r="G5" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="14" t="n">
         <v>60</v>
       </c>
-      <c r="J5" s="12" t="n">
+      <c r="J5" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11120,25 +11125,24 @@
         <v>152</v>
       </c>
       <c r="C6" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="12" t="n">
+      <c r="J6" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11147,25 +11151,24 @@
         <v>153</v>
       </c>
       <c r="C7" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="12" t="n">
+      <c r="J7" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11174,25 +11177,24 @@
         <v>154</v>
       </c>
       <c r="C8" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="12" t="n">
+      <c r="J8" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11201,25 +11203,24 @@
         <v>155</v>
       </c>
       <c r="C9" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="12" t="n">
+      <c r="J9" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11228,25 +11229,24 @@
         <v>156</v>
       </c>
       <c r="C10" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="12" t="n">
+      <c r="J10" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11255,13 +11255,12 @@
         <v>157</v>
       </c>
       <c r="C11" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="14" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
@@ -11270,10 +11269,10 @@
       <c r="G11" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="H11" s="12" t="n">
+      <c r="H11" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="J11" s="12" t="n">
+      <c r="J11" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11282,13 +11281,12 @@
         <v>159</v>
       </c>
       <c r="C12" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
@@ -11297,10 +11295,10 @@
       <c r="G12" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="H12" s="12" t="n">
+      <c r="H12" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="J12" s="12" t="n">
+      <c r="J12" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11309,13 +11307,12 @@
         <v>160</v>
       </c>
       <c r="C13" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="14" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
@@ -11324,10 +11321,10 @@
       <c r="G13" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="H13" s="12" t="n">
+      <c r="H13" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="J13" s="12" t="n">
+      <c r="J13" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11336,13 +11333,12 @@
         <v>161</v>
       </c>
       <c r="C14" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="E14" s="14" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="n">
@@ -11351,10 +11347,10 @@
       <c r="G14" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="H14" s="12" t="n">
+      <c r="H14" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="J14" s="12" t="n">
+      <c r="J14" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11363,13 +11359,12 @@
         <v>162</v>
       </c>
       <c r="C15" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="12" t="n">
+      <c r="E15" s="14" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
@@ -11378,10 +11373,10 @@
       <c r="G15" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="12" t="n">
+      <c r="H15" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="J15" s="12" t="n">
+      <c r="J15" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11390,24 +11385,23 @@
         <v>163</v>
       </c>
       <c r="C16" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">D11</f>
         <v>0</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="14" t="n">
         <v>-0.23</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="12" t="n">
+      <c r="J16" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11416,24 +11410,23 @@
         <v>164</v>
       </c>
       <c r="C17" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">D12</f>
         <v>0</v>
       </c>
-      <c r="E17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9"/>
+      <c r="E17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="12" t="n">
+      <c r="J17" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11442,24 +11435,23 @@
         <v>165</v>
       </c>
       <c r="C18" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">D13</f>
         <v>0</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="14" t="n">
         <v>-0.27</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="12" t="n">
+      <c r="J18" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11468,24 +11460,23 @@
         <v>166</v>
       </c>
       <c r="C19" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">D14</f>
         <v>0</v>
       </c>
-      <c r="E19" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9"/>
+      <c r="E19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10"/>
       <c r="G19" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="12" t="n">
+      <c r="J19" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11494,24 +11485,23 @@
         <v>167</v>
       </c>
       <c r="C20" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">D15</f>
         <v>0</v>
       </c>
-      <c r="E20" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9"/>
+      <c r="E20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10"/>
       <c r="G20" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="12" t="n">
+      <c r="J20" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11520,25 +11510,24 @@
         <v>168</v>
       </c>
       <c r="C21" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="E21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="12" t="n">
+      <c r="J21" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11546,26 +11535,26 @@
       <c r="A22" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="13" t="b">
+      <c r="C22" s="15" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="12" t="n">
+      <c r="J22" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11574,53 +11563,52 @@
         <v>170</v>
       </c>
       <c r="C23" s="13" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0.33</v>
       </c>
-      <c r="E23" s="12" t="n">
+      <c r="E23" s="14" t="n">
         <v>0.33</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="12" t="n">
+      <c r="J23" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="4" t="n">
+      <c r="C24" s="16"/>
+      <c r="D24" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E24" s="16" t="n">
         <v>0.7</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="14" t="n">
+      <c r="I24" s="5"/>
+      <c r="J24" s="16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11674,7 +11662,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>-309960</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12960</xdr:rowOff>
+                    <xdr:rowOff>28440</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12184,7 +12172,7 @@
       <c r="A2" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -12226,7 +12214,7 @@
       <c r="B5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>179</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -12306,7 +12294,7 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>183</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -12323,10 +12311,10 @@
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>186</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -12337,7 +12325,7 @@
       <c r="A4" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="0" t="b">
+      <c r="C4" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12394,13 +12382,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>453600</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>15120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-612360</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>-69840</xdr:rowOff>
+                    <xdr:rowOff>-54720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12451,7 +12439,7 @@
       <c r="A2" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="0" t="b">
+      <c r="C2" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12463,7 +12451,7 @@
       <c r="A3" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="7" t="b">
+      <c r="C3" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12547,7 +12535,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>6840</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>19080</xdr:rowOff>
+                    <xdr:rowOff>34200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12607,84 +12595,84 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="13" t="b">
+      <c r="C2" s="15" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="13" t="b">
+      <c r="C3" s="15" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="13" t="b">
+      <c r="C4" s="15" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="13" t="b">
+      <c r="C5" s="15" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="13" t="b">
+      <c r="C6" s="15" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="13" t="b">
+      <c r="C7" s="15" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="13" t="b">
+      <c r="C8" s="15" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="13" t="b">
+      <c r="C9" s="15" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="13" t="b">
+      <c r="C10" s="15" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="13" t="b">
+      <c r="C11" s="15" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="13" t="b">
+      <c r="C12" s="15" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="13" t="b">
+      <c r="C13" s="15" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="13" t="b">
+      <c r="C14" s="15" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12717,7 +12705,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>-501480</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12600</xdr:rowOff>
+                    <xdr:rowOff>28080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/input/Set_and_Control_Parameters.xlsx
+++ b/input/Set_and_Control_Parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralSettings" sheetId="1" state="visible" r:id="rId2"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="200">
   <si>
     <t xml:space="preserve">Parameter</t>
   </si>
@@ -146,6 +146,12 @@
     <t xml:space="preserve">Graphical representation of results in the case all sectors are activated</t>
   </si>
   <si>
+    <t xml:space="preserve">Calculate final energy demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For calculation of the share of the industrial non-specified sector</t>
+  </si>
+  <si>
     <t xml:space="preserve">Country</t>
   </si>
   <si>
@@ -575,9 +581,6 @@
     <t xml:space="preserve">allways active</t>
   </si>
   <si>
-    <t xml:space="preserve">Forecast method for rest household consumption</t>
-  </si>
-  <si>
     <t xml:space="preserve">Predefined ratio of Q1 heat level (below 60°C)</t>
   </si>
   <si>
@@ -614,11 +617,22 @@
     <t xml:space="preserve">Method for modal split</t>
   </si>
   <si>
-    <t xml:space="preserve">If scenario selection = study values =&gt; method = Trend (interpolation of values is done). 
-If scenario selection = historical =&gt; method can be both Trend or Constant (trend development or last available value)</t>
+    <t xml:space="preserve">If scenario selection = historical =&gt; method can be both Trend or Constant (linear trend development or last available value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario selection for final energy demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario selection for final energy demand calaculation - electricity and hydrogen vehicles shares based on reference case or user inputs</t>
   </si>
   <si>
     <t xml:space="preserve">Calculation for rest subsector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario selection for final energy demand calaculation - electricity and hydrogen vehicles shares</t>
   </si>
   <si>
     <t xml:space="preserve">Reference year for industrial production</t>
@@ -646,10 +660,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -753,7 +766,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -762,15 +775,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -778,7 +787,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -786,7 +795,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -810,11 +819,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -838,204 +843,204 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$10" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps100.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps101.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps102.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_general!$C$5" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps103.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_general!$C$4" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps104.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_general!$C$3" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps106.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$2" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$5" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProps107.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$5" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps108.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$6" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps109.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps109.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$13" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps110.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$8" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps110.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps111.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$9" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps112.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$10" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps112.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$12" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProps113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps114.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps116.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$15" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps117.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$21" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps118.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$22" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps119.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$23" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps119.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$11" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps120.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$11" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps121.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$16" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps122.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$19" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps123.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps124.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$18" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps125.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$17" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps126.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps127.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$4" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps129.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$5" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps13.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$2" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps120.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$16" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$19" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps122.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$20" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps123.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$18" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps124.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$17" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps125.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$3" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps126.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="IND_subsectors!$C$4" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps128.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$4" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps131.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$2" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps132.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="CTS!$C$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps134.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps135.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$4" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps136.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$5" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps137.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$6" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps138.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$7" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps139.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$8" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps14.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$3" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps130.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$2" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps131.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="CTS!$C$3" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps133.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$3" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps134.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$4" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps135.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$5" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps136.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$6" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps137.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$7" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps138.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$8" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps139.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps140.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$9" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps141.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$10" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps142.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$11" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps143.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$12" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps144.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$13" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps145.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$14" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps146.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$2" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps15.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$4" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps140.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$10" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps141.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$11" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps142.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$12" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps143.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$13" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps144.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$14" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps145.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="IND_food_unused!$C$2" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps16.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$5" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps17.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$6" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps18.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps19.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$8" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1043,175 +1048,175 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProps20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$9" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps21.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$10" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps22.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$11" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps23.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$12" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps24.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$13" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps25.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$14" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps26.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$15" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps27.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$16" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps28.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$17" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps29.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$18" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$4" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps30.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$19" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$4" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps31.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$20" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps32.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$21" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps33.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$22" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps34.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$23" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps35.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$24" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps36.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$25" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps37.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$26" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps38.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$27" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps39.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$28" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$5" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps40.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$29" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$5" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps41.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$30" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps42.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$31" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps43.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$32" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps44.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$34" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps45.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$35" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps46.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Countries!$C$33" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps47.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$36" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps48.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$37" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps49.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$38" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$6" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps50.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$39" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="GeneralSettings!$C$6" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps51.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$40" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps52.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$41" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps53.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$42" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps54.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$43" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps55.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$44" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps56.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$45" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps57.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$46" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps58.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$47" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps59.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$54" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps59.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$52" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1219,43 +1224,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProps60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$52" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps61.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$51" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps62.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$55" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps63.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$56" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps64.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$57" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps65.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$58" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps66.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$59" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps67.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$60" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps68.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$50" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps69.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$49" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps69.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$62" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1263,43 +1268,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProps70.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$62" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps71.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$61" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps72.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$63" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps73.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$64" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps74.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$65" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps75.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$66" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps76.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$67" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps77.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$68" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps78.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$69" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps79.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$70" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps79.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$71" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1307,43 +1312,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProps80.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$71" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps81.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$72" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps82.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$73" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps83.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$74" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps84.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$75" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps85.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$76" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps86.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$77" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps87.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$78" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps88.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$79" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps89.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$80" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProps89.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$81" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1351,38 +1356,42 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProps90.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$81" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps91.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$82" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps92.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$83" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps93.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$84" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps94.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$85" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps95.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$86" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps96.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$87" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps97.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$88" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps98.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$53" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProps99.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Countries!$C$48" lockText="1" noThreeD="1"/>
 </file>
 
@@ -1395,13 +1404,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>15120</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28080</xdr:rowOff>
+          <xdr:rowOff>12600</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1439,13 +1448,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>15480</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>28080</xdr:rowOff>
+          <xdr:rowOff>12600</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1483,13 +1492,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>15480</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>27720</xdr:rowOff>
+          <xdr:rowOff>12600</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1527,13 +1536,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>15120</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>27720</xdr:rowOff>
+          <xdr:rowOff>12600</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1571,13 +1580,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>15120</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>27720</xdr:rowOff>
+          <xdr:rowOff>12600</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1615,13 +1624,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>15120</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>27720</xdr:rowOff>
+          <xdr:rowOff>12600</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1659,13 +1668,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>15120</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>28080</xdr:rowOff>
+          <xdr:rowOff>12600</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1703,13 +1712,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>15120</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>27720</xdr:rowOff>
+          <xdr:rowOff>12600</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1747,13 +1756,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>6480</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>15480</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>-818280</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>21600</xdr:rowOff>
+          <xdr:rowOff>6480</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1784,10 +1793,235 @@
       </xdr:twoCellAnchor>
     </mc:Choice>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>6480</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>-818280</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>12600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1010" name="Check Box 13" descr="Activate" hidden="0"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:p>
+              <a:r>
+                <a:t>Activate</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing100.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1527480</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>114480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>429840</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19080</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1001" name="Check Box 4" descr="Activate" hidden="0"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:p>
+              <a:r>
+                <a:t>Activate</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>6480</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>114480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>-789480</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19080</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1002" name="Check Box 5" descr="Activate" hidden="0"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:p>
+              <a:r>
+                <a:t>Activate</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>6480</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>114480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>-789480</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19080</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1003" name="Check Box 6" descr="Activate" hidden="0"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:p>
+              <a:r>
+                <a:t>Activate</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>6480</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>114480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>-789480</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19080</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1004" name="Check Box 7" descr="Activate" hidden="0"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr anchor="ctr">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:p>
+              <a:r>
+                <a:t>Activate</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing105.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1802,7 +2036,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>-309960</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28440</xdr:rowOff>
+          <xdr:rowOff>12960</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2760,7 +2994,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2775,7 +3009,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>-82800</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>15120</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -6593,22 +6827,22 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing127.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing128.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>453600</xdr:colOff>
+          <xdr:colOff>654840</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>15120</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>-612360</xdr:colOff>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>-411120</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>-54720</xdr:rowOff>
+          <xdr:rowOff>-69840</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -6642,7 +6876,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing129.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing130.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6657,7 +6891,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>6840</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>34200</xdr:rowOff>
+          <xdr:rowOff>19080</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -6735,7 +6969,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing133.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6750,7 +6984,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>-501480</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28080</xdr:rowOff>
+          <xdr:rowOff>12600</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -7283,187 +7517,6 @@
         <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1013" name="Check Box 26" descr="Activate" hidden="0"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr anchor="ctr">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:p>
-              <a:r>
-                <a:t>Activate</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing99.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>1527480</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>129600</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>429840</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>34200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1001" name="Check Box 4" descr="Activate" hidden="0"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr anchor="ctr">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:p>
-              <a:r>
-                <a:t>Activate</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>6480</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>114480</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>-789480</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>19080</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1002" name="Check Box 5" descr="Activate" hidden="0"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr anchor="ctr">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:p>
-              <a:r>
-                <a:t>Activate</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>6480</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>114480</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>-789480</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>19080</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1003" name="Check Box 6" descr="Activate" hidden="0"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr anchor="ctr">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:p>
-              <a:r>
-                <a:t>Activate</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>6480</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>114480</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>-789480</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>19080</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1004" name="Check Box 7" descr="Activate" hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7498,10 +7551,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7534,20 +7587,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="b">
-        <v>1</v>
+      <c r="C2" s="2" t="n">
+        <v>2018</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>2050</v>
       </c>
     </row>
@@ -7555,14 +7608,14 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="b">
+      <c r="C3" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7570,14 +7623,14 @@
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="C4" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7585,14 +7638,14 @@
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="C5" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7600,14 +7653,14 @@
       <c r="A6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="C6" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7615,14 +7668,14 @@
       <c r="A7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="b">
+      <c r="C7" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7630,14 +7683,14 @@
       <c r="A8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="b">
+      <c r="C8" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7645,29 +7698,29 @@
       <c r="A9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4" t="b">
+      <c r="C9" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+    <row r="10" s="4" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6" t="b">
+      <c r="C10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7678,13 +7731,13 @@
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="2" t="n">
         <v>2016</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="2" t="n">
         <v>2016</v>
       </c>
     </row>
@@ -7692,15 +7745,30 @@
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="8" t="b">
+      <c r="C12" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -7731,13 +7799,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>15120</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>28080</xdr:rowOff>
+                    <xdr:rowOff>12600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7753,13 +7821,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>15480</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>28080</xdr:rowOff>
+                    <xdr:rowOff>12600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7775,13 +7843,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>15480</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>27720</xdr:rowOff>
+                    <xdr:rowOff>12600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7797,13 +7865,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>15120</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>27720</xdr:rowOff>
+                    <xdr:rowOff>12600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7819,13 +7887,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>15120</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>27720</xdr:rowOff>
+                    <xdr:rowOff>12600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7841,13 +7909,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>15120</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>27720</xdr:rowOff>
+                    <xdr:rowOff>12600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7863,13 +7931,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>15120</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>28080</xdr:rowOff>
+                    <xdr:rowOff>12600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7885,13 +7953,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>15120</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>27720</xdr:rowOff>
+                    <xdr:rowOff>12600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7907,13 +7975,35 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>6480</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>15480</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>-818280</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>21600</xdr:rowOff>
+                    <xdr:rowOff>6480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1010" r:id="rId12" name="Activate">
+              <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 13">
+                <anchor moveWithCells="true" sizeWithCells="false">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>6480</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>-818280</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>12600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7933,8 +8023,8 @@
   </sheetPr>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7945,804 +8035,804 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="8" t="b">
+        <v>34</v>
+      </c>
+      <c r="C2" s="0" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="8" t="b">
+        <v>35</v>
+      </c>
+      <c r="C3" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="8" t="b">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="8" t="b">
+        <v>37</v>
+      </c>
+      <c r="C5" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="8" t="b">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="8" t="b">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="8" t="b">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="8" t="b">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="8" t="b">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="8" t="b">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="8" t="b">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="8" t="b">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="8" t="b">
+        <v>46</v>
+      </c>
+      <c r="C14" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="8" t="b">
+        <v>47</v>
+      </c>
+      <c r="C15" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="8" t="b">
+        <v>48</v>
+      </c>
+      <c r="C16" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="8" t="b">
+        <v>49</v>
+      </c>
+      <c r="C17" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="8" t="b">
+        <v>50</v>
+      </c>
+      <c r="C18" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="8" t="b">
+        <v>51</v>
+      </c>
+      <c r="C19" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="8" t="b">
+        <v>52</v>
+      </c>
+      <c r="C20" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="8" t="b">
+        <v>53</v>
+      </c>
+      <c r="C21" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="8" t="b">
+        <v>54</v>
+      </c>
+      <c r="C22" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="8" t="b">
+        <v>55</v>
+      </c>
+      <c r="C23" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="8" t="b">
+        <v>56</v>
+      </c>
+      <c r="C24" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="8" t="b">
+        <v>57</v>
+      </c>
+      <c r="C25" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="8" t="b">
+        <v>58</v>
+      </c>
+      <c r="C26" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="8" t="b">
+        <v>59</v>
+      </c>
+      <c r="C27" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="8" t="b">
+        <v>60</v>
+      </c>
+      <c r="C28" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="8" t="b">
+        <v>61</v>
+      </c>
+      <c r="C29" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="8" t="b">
+        <v>62</v>
+      </c>
+      <c r="C30" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="8" t="b">
+        <v>63</v>
+      </c>
+      <c r="C31" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="8" t="b">
+        <v>64</v>
+      </c>
+      <c r="C32" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="8" t="b">
+        <v>65</v>
+      </c>
+      <c r="C33" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="8" t="b">
+        <v>66</v>
+      </c>
+      <c r="C34" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="8" t="b">
+        <v>67</v>
+      </c>
+      <c r="C35" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="8" t="b">
+        <v>68</v>
+      </c>
+      <c r="C36" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="8" t="b">
+        <v>70</v>
+      </c>
+      <c r="C37" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="8" t="b">
+        <v>72</v>
+      </c>
+      <c r="C38" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="8" t="b">
+        <v>73</v>
+      </c>
+      <c r="C39" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="8" t="b">
+        <v>74</v>
+      </c>
+      <c r="C40" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="8" t="b">
+        <v>75</v>
+      </c>
+      <c r="C41" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="8" t="b">
+        <v>76</v>
+      </c>
+      <c r="C42" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="8" t="b">
+        <v>77</v>
+      </c>
+      <c r="C43" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="8" t="b">
+        <v>78</v>
+      </c>
+      <c r="C44" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="8" t="b">
+        <v>79</v>
+      </c>
+      <c r="C45" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="8" t="b">
+        <v>80</v>
+      </c>
+      <c r="C46" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="8" t="b">
+        <v>81</v>
+      </c>
+      <c r="C47" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="8" t="b">
+        <v>82</v>
+      </c>
+      <c r="C48" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="8" t="b">
+        <v>83</v>
+      </c>
+      <c r="C49" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="8" t="b">
+        <v>84</v>
+      </c>
+      <c r="C50" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="8" t="b">
+        <v>85</v>
+      </c>
+      <c r="C51" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="8" t="b">
+        <v>86</v>
+      </c>
+      <c r="C52" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="8" t="b">
+        <v>87</v>
+      </c>
+      <c r="C53" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="8" t="b">
+        <v>88</v>
+      </c>
+      <c r="C54" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="8" t="b">
+        <v>89</v>
+      </c>
+      <c r="C55" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="8" t="b">
+        <v>90</v>
+      </c>
+      <c r="C56" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="8" t="b">
+        <v>91</v>
+      </c>
+      <c r="C57" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="8" t="b">
+        <v>92</v>
+      </c>
+      <c r="C58" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="8" t="b">
+        <v>93</v>
+      </c>
+      <c r="C59" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="8" t="b">
+        <v>94</v>
+      </c>
+      <c r="C60" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C61" s="8" t="b">
+        <v>95</v>
+      </c>
+      <c r="C61" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="8" t="b">
+        <v>96</v>
+      </c>
+      <c r="C62" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" s="8" t="b">
+        <v>97</v>
+      </c>
+      <c r="C63" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" s="8" t="b">
+        <v>98</v>
+      </c>
+      <c r="C64" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="8" t="b">
+        <v>99</v>
+      </c>
+      <c r="C65" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="8" t="b">
+        <v>100</v>
+      </c>
+      <c r="C66" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="8" t="b">
+        <v>101</v>
+      </c>
+      <c r="C67" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="8" t="b">
+        <v>102</v>
+      </c>
+      <c r="C68" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C69" s="8" t="b">
+        <v>103</v>
+      </c>
+      <c r="C69" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="8" t="b">
+        <v>104</v>
+      </c>
+      <c r="C70" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="8" t="b">
+        <v>105</v>
+      </c>
+      <c r="C71" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" s="8" t="b">
+        <v>106</v>
+      </c>
+      <c r="C72" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="8" t="b">
+        <v>107</v>
+      </c>
+      <c r="C73" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="8" t="b">
+        <v>108</v>
+      </c>
+      <c r="C74" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" s="8" t="b">
+        <v>109</v>
+      </c>
+      <c r="C75" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" s="8" t="b">
+        <v>110</v>
+      </c>
+      <c r="C76" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="8" t="b">
+        <v>111</v>
+      </c>
+      <c r="C77" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" s="8" t="b">
+        <v>112</v>
+      </c>
+      <c r="C78" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C79" s="8" t="b">
+        <v>113</v>
+      </c>
+      <c r="C79" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80" s="8" t="b">
+        <v>114</v>
+      </c>
+      <c r="C80" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="8" t="b">
+        <v>115</v>
+      </c>
+      <c r="C81" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C82" s="8" t="b">
+        <v>116</v>
+      </c>
+      <c r="C82" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="8" t="b">
+        <v>117</v>
+      </c>
+      <c r="C83" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C84" s="8" t="b">
+        <v>118</v>
+      </c>
+      <c r="C84" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="8" t="b">
+        <v>119</v>
+      </c>
+      <c r="C85" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C86" s="8" t="b">
+        <v>120</v>
+      </c>
+      <c r="C86" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C87" s="8" t="b">
+        <v>121</v>
+      </c>
+      <c r="C87" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C88" s="8" t="b">
+        <v>122</v>
+      </c>
+      <c r="C88" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8775,7 +8865,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>-82800</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>15120</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10687,8 +10777,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10712,36 +10802,36 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>123</v>
+      <c r="C2" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="8" t="b">
+        <v>127</v>
+      </c>
+      <c r="C3" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>25</v>
@@ -10749,14 +10839,14 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="8" t="b">
+        <v>129</v>
+      </c>
+      <c r="C4" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
@@ -10764,9 +10854,9 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="8" t="b">
+        <v>131</v>
+      </c>
+      <c r="C5" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10776,7 +10866,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -10785,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -10793,14 +10883,14 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="8" t="b">
+        <v>134</v>
+      </c>
+      <c r="C7" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>10</v>
@@ -10808,7 +10898,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
@@ -10817,7 +10907,7 @@
         <v>2009</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>2009</v>
@@ -10825,7 +10915,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
@@ -10834,7 +10924,7 @@
         <v>2019</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>2019</v>
@@ -10872,13 +10962,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1527480</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>129600</xdr:rowOff>
+                    <xdr:rowOff>114480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>429840</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>34200</xdr:rowOff>
+                    <xdr:rowOff>19080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10964,8 +11054,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10984,631 +11074,652 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="E1" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="G1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>142</v>
+      <c r="I1" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="13" t="b">
-        <v>1</v>
+      <c r="C2" s="12" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="14" t="n">
+      <c r="J2" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="13" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="14" t="n">
+      <c r="J3" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="13" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="14" t="n">
+      <c r="J4" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C5" s="13" t="b">
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="14" t="n">
+        <v>153</v>
+      </c>
+      <c r="H5" s="12" t="n">
         <v>60</v>
       </c>
-      <c r="J5" s="14" t="n">
+      <c r="J5" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="13" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="14" t="n">
+      <c r="J6" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C7" s="13" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="14" t="n">
+      <c r="J7" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C8" s="13" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="14" t="n">
+      <c r="J8" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C9" s="13" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="14" t="n">
+      <c r="J9" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C10" s="13" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="14" t="n">
+      <c r="J10" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C11" s="13" t="b">
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="14" t="n">
+        <v>160</v>
+      </c>
+      <c r="H11" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="J11" s="14" t="n">
+      <c r="J11" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C12" s="13" t="b">
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" s="14" t="n">
+        <v>160</v>
+      </c>
+      <c r="H12" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="J12" s="14" t="n">
+      <c r="J12" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="13" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="14" t="n">
+      <c r="H13" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="J13" s="14" t="n">
+      <c r="J13" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C14" s="13" t="b">
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H14" s="14" t="n">
+        <v>160</v>
+      </c>
+      <c r="H14" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="J14" s="14" t="n">
+      <c r="J14" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C15" s="13" t="b">
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="14" t="n">
+        <v>160</v>
+      </c>
+      <c r="H15" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="J15" s="14" t="n">
+      <c r="J15" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C16" s="13" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">D11</f>
         <v>0</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="12" t="n">
         <v>-0.23</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="14" t="n">
+      <c r="J16" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C17" s="13" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">D12</f>
         <v>0</v>
       </c>
-      <c r="E17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="E17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="14" t="n">
+      <c r="J17" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C18" s="13" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">D13</f>
         <v>0</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="12" t="n">
         <v>-0.27</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="14" t="n">
+      <c r="J18" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C19" s="13" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">D14</f>
         <v>0</v>
       </c>
-      <c r="E19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10"/>
+      <c r="E19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
       <c r="G19" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="14" t="n">
+      <c r="J19" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C20" s="13" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">D15</f>
         <v>0</v>
       </c>
-      <c r="E20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10"/>
+      <c r="E20" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
       <c r="G20" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="14" t="n">
+      <c r="J20" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C21" s="13" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="14" t="n">
+      <c r="J21" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="15" t="b">
+        <v>171</v>
+      </c>
+      <c r="C22" s="13" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="14" t="n">
+      <c r="J22" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C23" s="13" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0.33</v>
       </c>
-      <c r="E23" s="14" t="n">
+      <c r="E23" s="12" t="n">
         <v>0.33</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="14" t="n">
+      <c r="J23" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="5" t="n">
+      <c r="A24" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="E24" s="16" t="n">
+      <c r="E24" s="14" t="n">
         <v>0.7</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="16" t="s">
+      <c r="G24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="16" t="n">
+      <c r="I24" s="4"/>
+      <c r="J24" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11662,7 +11773,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>-309960</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>28440</xdr:rowOff>
+                    <xdr:rowOff>12960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12142,10 +12253,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12165,83 +12276,66 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>123</v>
+        <v>175</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.45</v>
+        <v>0.83115</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.83115</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.83115</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>177</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.83115</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>179</v>
+        <v>0.35</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="0" t="n">
         <v>0.35</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.35</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2" type="list">
-      <formula1>"Trend"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -12257,15 +12351,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="66.57"/>
   </cols>
@@ -12284,80 +12378,104 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>183</v>
+      <c r="C2" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>186</v>
+      <c r="C3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="8" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>188</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="0" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C6" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="D6" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>2018</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3" type="list">
       <formula1>"Constant,Trend"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2" type="list">
       <formula1>"Historical,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="list">
+      <formula1>"Reference,User"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -12380,15 +12498,15 @@
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>453600</xdr:colOff>
+                    <xdr:colOff>654840</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>15120</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>-612360</xdr:colOff>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>-411120</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>-54720</xdr:rowOff>
+                    <xdr:rowOff>-69840</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12432,14 +12550,14 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="8" t="b">
+        <v>131</v>
+      </c>
+      <c r="C2" s="0" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12449,14 +12567,14 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="8" t="b">
+        <v>195</v>
+      </c>
+      <c r="C3" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>25</v>
@@ -12464,18 +12582,18 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
@@ -12484,7 +12602,7 @@
         <v>2019</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2019</v>
@@ -12492,7 +12610,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -12501,7 +12619,7 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0.5</v>
@@ -12535,7 +12653,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>6840</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>34200</xdr:rowOff>
+                    <xdr:rowOff>19080</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12590,89 +12708,89 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>194</v>
+      <c r="C1" s="10" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="15" t="b">
+      <c r="C2" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="15" t="b">
+      <c r="C3" s="12" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="15" t="b">
+      <c r="C4" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="15" t="b">
+      <c r="C5" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="15" t="b">
+      <c r="C6" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="15" t="b">
+      <c r="C7" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="15" t="b">
+      <c r="C8" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="15" t="b">
+      <c r="C9" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="15" t="b">
+      <c r="C10" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="15" t="b">
+      <c r="C11" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="15" t="b">
+      <c r="C12" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="15" t="b">
+      <c r="C13" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="15" t="b">
+      <c r="C14" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -12705,7 +12823,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>-501480</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>28080</xdr:rowOff>
+                    <xdr:rowOff>12600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/input/Set_and_Control_Parameters.xlsx
+++ b/input/Set_and_Control_Parameters.xlsx
@@ -759,7 +759,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -816,10 +816,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1085,7 +1081,7 @@
   </sheetPr>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -1285,7 +1281,7 @@
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="8" t="b">
+      <c r="C21" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1294,7 +1290,7 @@
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="8" t="b">
+      <c r="C22" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1303,7 +1299,7 @@
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="8" t="b">
+      <c r="C23" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1312,7 +1308,7 @@
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="8" t="b">
+      <c r="C24" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1321,7 +1317,7 @@
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="8" t="b">
+      <c r="C25" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1330,7 +1326,7 @@
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="8" t="b">
+      <c r="C26" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1339,7 +1335,7 @@
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="8" t="b">
+      <c r="C27" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1348,7 +1344,7 @@
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="8" t="b">
+      <c r="C28" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1357,7 +1353,7 @@
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="8" t="b">
+      <c r="C29" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1366,7 +1362,7 @@
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="8" t="b">
+      <c r="C30" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1375,7 +1371,7 @@
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="8" t="b">
+      <c r="C31" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1384,7 +1380,7 @@
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="8" t="b">
+      <c r="C32" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1393,7 +1389,7 @@
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="8" t="b">
+      <c r="C33" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1402,7 +1398,7 @@
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="8" t="b">
+      <c r="C34" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1411,7 +1407,7 @@
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="8" t="b">
+      <c r="C35" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1420,7 +1416,7 @@
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="8" t="b">
+      <c r="C36" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1432,7 +1428,7 @@
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="8" t="b">
+      <c r="C37" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1444,7 +1440,7 @@
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="8" t="b">
+      <c r="C38" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1453,7 +1449,7 @@
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="8" t="b">
+      <c r="C39" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1462,7 +1458,7 @@
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="8" t="b">
+      <c r="C40" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1471,7 +1467,7 @@
       <c r="A41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="8" t="b">
+      <c r="C41" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1480,7 +1476,7 @@
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="8" t="b">
+      <c r="C42" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1489,7 +1485,7 @@
       <c r="A43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="8" t="b">
+      <c r="C43" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1498,7 +1494,7 @@
       <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="8" t="b">
+      <c r="C44" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1507,7 +1503,7 @@
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="8" t="b">
+      <c r="C45" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1516,7 +1512,7 @@
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="8" t="b">
+      <c r="C46" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1525,7 +1521,7 @@
       <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="8" t="b">
+      <c r="C47" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1534,7 +1530,7 @@
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="8" t="b">
+      <c r="C48" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1543,7 +1539,7 @@
       <c r="A49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="8" t="b">
+      <c r="C49" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1552,7 +1548,7 @@
       <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="8" t="b">
+      <c r="C50" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1561,7 +1557,7 @@
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="8" t="b">
+      <c r="C51" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1570,7 +1566,7 @@
       <c r="A52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="8" t="b">
+      <c r="C52" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1579,7 +1575,7 @@
       <c r="A53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="8" t="b">
+      <c r="C53" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1588,7 +1584,7 @@
       <c r="A54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="8" t="b">
+      <c r="C54" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1597,7 +1593,7 @@
       <c r="A55" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="8" t="b">
+      <c r="C55" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1606,7 +1602,7 @@
       <c r="A56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="8" t="b">
+      <c r="C56" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1615,7 +1611,7 @@
       <c r="A57" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="8" t="b">
+      <c r="C57" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1624,7 +1620,7 @@
       <c r="A58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="8" t="b">
+      <c r="C58" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1633,7 +1629,7 @@
       <c r="A59" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="8" t="b">
+      <c r="C59" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1918,7 +1914,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1977,13 +1973,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C4" s="8" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>130</v>
@@ -2061,7 +2057,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>139</v>
@@ -2160,7 +2156,7 @@
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="n">
+      <c r="E2" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -2169,10 +2165,10 @@
       <c r="G2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="14" t="n">
+      <c r="H2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,7 +2184,7 @@
       <c r="D3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -2197,10 +2193,10 @@
       <c r="G3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="14" t="n">
+      <c r="H3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2215,7 +2211,7 @@
       <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -2224,10 +2220,10 @@
       <c r="G4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="14" t="n">
+      <c r="H4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2242,7 +2238,7 @@
       <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
@@ -2251,10 +2247,10 @@
       <c r="G5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="14" t="n">
+      <c r="H5" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="J5" s="14" t="n">
+      <c r="J5" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2269,7 +2265,7 @@
       <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -2278,10 +2274,10 @@
       <c r="G6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="14" t="n">
+      <c r="H6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2296,7 +2292,7 @@
       <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -2305,10 +2301,10 @@
       <c r="G7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="14" t="n">
+      <c r="H7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2323,7 +2319,7 @@
       <c r="D8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -2332,10 +2328,10 @@
       <c r="G8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="14" t="n">
+      <c r="H8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2350,7 +2346,7 @@
       <c r="D9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -2359,10 +2355,10 @@
       <c r="G9" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="14" t="n">
+      <c r="H9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2377,7 +2373,7 @@
       <c r="D10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -2386,10 +2382,10 @@
       <c r="G10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="14" t="n">
+      <c r="H10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2404,7 +2400,7 @@
       <c r="D11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
@@ -2413,10 +2409,10 @@
       <c r="G11" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="14" t="n">
+      <c r="H11" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="J11" s="14" t="n">
+      <c r="J11" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2431,7 +2427,7 @@
       <c r="D12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
@@ -2440,10 +2436,10 @@
       <c r="G12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H12" s="14" t="n">
+      <c r="H12" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="J12" s="14" t="n">
+      <c r="J12" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2458,7 +2454,7 @@
       <c r="D13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="n">
@@ -2467,10 +2463,10 @@
       <c r="G13" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="14" t="n">
+      <c r="H13" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="J13" s="14" t="n">
+      <c r="J13" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2485,7 +2481,7 @@
       <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="n">
@@ -2494,10 +2490,10 @@
       <c r="G14" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H14" s="14" t="n">
+      <c r="H14" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="J14" s="14" t="n">
+      <c r="J14" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2512,7 +2508,7 @@
       <c r="D15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="1" t="n">
@@ -2521,10 +2517,10 @@
       <c r="G15" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H15" s="14" t="n">
+      <c r="H15" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="J15" s="14" t="n">
+      <c r="J15" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,17 +2536,17 @@
         <f aca="false">D11</f>
         <v>0</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="13" t="n">
         <v>-0.23</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="14" t="n">
+      <c r="H16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,17 +2562,17 @@
         <f aca="false">D12</f>
         <v>0</v>
       </c>
-      <c r="E17" s="14" t="n">
+      <c r="E17" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="14" t="n">
+      <c r="H17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,17 +2588,17 @@
         <f aca="false">D13</f>
         <v>0</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="13" t="n">
         <v>-0.27</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="14" t="n">
+      <c r="H18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,17 +2614,17 @@
         <f aca="false">D14</f>
         <v>0</v>
       </c>
-      <c r="E19" s="14" t="n">
+      <c r="E19" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="14" t="n">
+      <c r="H19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,17 +2640,17 @@
         <f aca="false">D15</f>
         <v>0</v>
       </c>
-      <c r="E20" s="14" t="n">
+      <c r="E20" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="14" t="n">
+      <c r="H20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2669,7 +2665,7 @@
       <c r="D21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E21" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="10" t="s">
@@ -2678,10 +2674,10 @@
       <c r="G21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="14" t="n">
+      <c r="H21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,7 +2692,7 @@
       <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="14" t="n">
+      <c r="E22" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="10" t="s">
@@ -2705,10 +2701,10 @@
       <c r="G22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="14" t="n">
+      <c r="H22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2723,7 +2719,7 @@
       <c r="D23" s="1" t="n">
         <v>0.33</v>
       </c>
-      <c r="E23" s="14" t="n">
+      <c r="E23" s="13" t="n">
         <v>0.33</v>
       </c>
       <c r="F23" s="10" t="s">
@@ -2732,10 +2728,10 @@
       <c r="G23" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="14" t="n">
+      <c r="H23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2746,11 +2742,11 @@
       <c r="B24" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="E24" s="15" t="n">
+      <c r="E24" s="14" t="n">
         <v>0.7</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -2759,11 +2755,11 @@
       <c r="G24" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="14" t="s">
         <v>6</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="15" t="n">
+      <c r="J24" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3189,79 +3185,79 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="14" t="b">
+      <c r="C2" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="14" t="b">
+      <c r="C3" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="14" t="b">
+      <c r="C4" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="14" t="b">
+      <c r="C5" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="14" t="b">
+      <c r="C6" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="14" t="b">
+      <c r="C7" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="14" t="b">
+      <c r="C8" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="14" t="b">
+      <c r="C9" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="14" t="b">
+      <c r="C10" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="14" t="b">
+      <c r="C11" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="14" t="b">
+      <c r="C12" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="14" t="b">
+      <c r="C13" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="14" t="b">
+      <c r="C14" s="13" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/input/Set_and_Control_Parameters.xlsx
+++ b/input/Set_and_Control_Parameters.xlsx
@@ -1281,7 +1281,7 @@
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="1" t="b">
+      <c r="C21" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="1" t="b">
+      <c r="C22" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1299,7 +1299,7 @@
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="1" t="b">
+      <c r="C23" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="1" t="b">
+      <c r="C24" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="1" t="b">
+      <c r="C25" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="1" t="b">
+      <c r="C26" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="1" t="b">
+      <c r="C27" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1344,7 +1344,7 @@
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="1" t="b">
+      <c r="C28" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="1" t="b">
+      <c r="C29" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="1" t="b">
+      <c r="C30" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="1" t="b">
+      <c r="C31" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="1" t="b">
+      <c r="C32" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="1" t="b">
+      <c r="C33" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="1" t="b">
+      <c r="C34" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="1" t="b">
+      <c r="C35" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="1" t="b">
+      <c r="C36" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1428,7 +1428,7 @@
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="1" t="b">
+      <c r="C37" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="1" t="b">
+      <c r="C38" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="1" t="b">
+      <c r="C39" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="1" t="b">
+      <c r="C40" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="A41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="1" t="b">
+      <c r="C41" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1476,7 +1476,7 @@
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="1" t="b">
+      <c r="C42" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="A43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="1" t="b">
+      <c r="C43" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1494,7 +1494,7 @@
       <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="1" t="b">
+      <c r="C44" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="1" t="b">
+      <c r="C45" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1914,7 +1914,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2057,7 +2057,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>139</v>

--- a/input/Set_and_Control_Parameters.xlsx
+++ b/input/Set_and_Control_Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo_Version2\endemo2\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Master_Semester_1\IDP\endemo2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DA7759-48F5-43B9-9D98-CFCE9E7A2690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1745E41-AFD5-4627-9C5F-601AE5D4167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="1905" windowWidth="21495" windowHeight="14655" tabRatio="730" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="19200" windowHeight="11260" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralSettings" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,9 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{04D4C06B-8268-4FCD-9269-B3F03D9D6D63}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Refers to the sum of primary and secondary steel. If "steel" is activated, steel_prim and steel_sec should not be additionally activated and the other way round.</t>
       </text>
     </comment>
@@ -692,7 +692,7 @@
     <t>The defined proportion contributes to hydrogen demand. Values from 0 to 1.</t>
   </si>
   <si>
-    <t>Linear time trend</t>
+    <t>Quadratic GDP function</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -862,23 +862,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -886,19 +886,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
@@ -906,23 +906,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -930,11 +930,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1302,7 +1302,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1396,7 +1396,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1453,14 +1453,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1482,7 +1482,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1539,14 +1539,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1568,7 +1568,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1625,14 +1625,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1654,7 +1654,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1711,14 +1711,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1740,7 +1740,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1797,14 +1797,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1826,7 +1826,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1883,14 +1883,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1912,7 +1912,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1969,14 +1969,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1998,7 +1998,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2055,14 +2055,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2084,7 +2084,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2092,7 +2092,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>1143000</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2141,14 +2141,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2170,7 +2170,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2227,14 +2227,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2261,9 +2261,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2318,14 +2318,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2347,15 +2347,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2404,14 +2404,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2433,15 +2433,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2490,14 +2490,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2519,15 +2519,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2576,14 +2576,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2605,15 +2605,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2662,14 +2662,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2691,15 +2691,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2748,14 +2748,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2777,15 +2777,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2834,14 +2834,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2863,15 +2863,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2920,14 +2920,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2949,15 +2949,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3006,14 +3006,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3035,15 +3035,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3092,14 +3092,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3121,15 +3121,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3178,14 +3178,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3207,15 +3207,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3264,14 +3264,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3293,15 +3293,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3350,14 +3350,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3379,15 +3379,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3436,14 +3436,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3465,15 +3465,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3522,14 +3522,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3551,15 +3551,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3608,14 +3608,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3637,15 +3637,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3694,14 +3694,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3723,15 +3723,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3780,14 +3780,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3809,15 +3809,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3866,14 +3866,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3895,15 +3895,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3952,14 +3952,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3981,15 +3981,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4038,14 +4038,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4067,15 +4067,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4124,14 +4124,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4153,15 +4153,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4210,14 +4210,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4239,15 +4239,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4296,14 +4296,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4325,15 +4325,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4382,14 +4382,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4411,15 +4411,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4468,14 +4468,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4497,15 +4497,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4554,14 +4554,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4583,15 +4583,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4640,14 +4640,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4669,15 +4669,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4726,14 +4726,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4755,15 +4755,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4812,14 +4812,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4841,15 +4841,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4898,14 +4898,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4927,15 +4927,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4984,14 +4984,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5013,15 +5013,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5070,14 +5070,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5099,15 +5099,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5156,14 +5156,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5185,15 +5185,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5242,14 +5242,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5271,15 +5271,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5328,14 +5328,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5357,15 +5357,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5414,14 +5414,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5443,15 +5443,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5500,14 +5500,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5529,15 +5529,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5586,14 +5586,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5615,15 +5615,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5672,14 +5672,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5701,15 +5701,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5758,14 +5758,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5787,15 +5787,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5844,14 +5844,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5873,15 +5873,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5930,14 +5930,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5959,15 +5959,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6016,14 +6016,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6045,15 +6045,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6102,14 +6102,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6131,15 +6131,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6188,14 +6188,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6217,13 +6217,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6274,14 +6274,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6303,13 +6303,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6360,14 +6360,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6389,13 +6389,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6446,14 +6446,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6475,13 +6475,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6532,14 +6532,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6561,13 +6561,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6618,14 +6618,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6647,13 +6647,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6704,14 +6704,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6733,13 +6733,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6790,14 +6790,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6819,13 +6819,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6876,14 +6876,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6905,13 +6905,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6962,14 +6962,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6991,13 +6991,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7048,14 +7048,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7077,13 +7077,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7134,14 +7134,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7163,13 +7163,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7220,14 +7220,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7249,13 +7249,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7306,14 +7306,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7335,13 +7335,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7392,14 +7392,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7421,13 +7421,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>63</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7478,14 +7478,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7507,13 +7507,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>64</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7564,14 +7564,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7593,13 +7593,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>65</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>65</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7650,14 +7650,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7679,13 +7679,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>66</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7736,14 +7736,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7765,13 +7765,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>67</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7822,14 +7822,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7851,13 +7851,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>68</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7908,14 +7908,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7937,13 +7937,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>69</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7994,14 +7994,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8023,13 +8023,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>70</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>70</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8080,14 +8080,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8109,13 +8109,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>71</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>71</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8166,14 +8166,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8195,13 +8195,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>72</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8252,14 +8252,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8281,13 +8281,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>73</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>73</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8338,14 +8338,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8367,13 +8367,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>74</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8424,14 +8424,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8453,13 +8453,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>75</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8510,14 +8510,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8539,13 +8539,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>76</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>76</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8596,14 +8596,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8625,13 +8625,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>77</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8682,14 +8682,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8711,13 +8711,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>78</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8768,14 +8768,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8797,13 +8797,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>79</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8854,14 +8854,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8883,13 +8883,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>80</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8940,14 +8940,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8969,13 +8969,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>81</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>81</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9026,14 +9026,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9055,13 +9055,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>82</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9112,14 +9112,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9141,13 +9141,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9198,14 +9198,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9227,13 +9227,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>84</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9284,14 +9284,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9313,13 +9313,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>85</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9370,14 +9370,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9399,13 +9399,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>86</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9456,14 +9456,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9485,13 +9485,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>87</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9542,14 +9542,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9571,13 +9571,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9628,14 +9628,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9657,13 +9657,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9714,14 +9714,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9748,15 +9748,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9805,14 +9805,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9834,15 +9834,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9891,14 +9891,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9920,15 +9920,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9977,14 +9977,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10006,15 +10006,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10063,14 +10063,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10099,7 +10099,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>352425</xdr:rowOff>
+          <xdr:rowOff>355600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10154,14 +10154,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10185,7 +10185,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10240,14 +10240,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10271,7 +10271,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10326,14 +10326,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10357,7 +10357,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10412,14 +10412,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10443,7 +10443,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10498,14 +10498,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10529,7 +10529,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10584,14 +10584,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10615,13 +10615,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>742950</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10670,14 +10670,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10756,14 +10756,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10787,7 +10787,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10842,14 +10842,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10873,7 +10873,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10928,14 +10928,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10959,7 +10959,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11014,14 +11014,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11045,7 +11045,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11100,14 +11100,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11131,7 +11131,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11186,14 +11186,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11223,7 +11223,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>742950</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11272,14 +11272,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11303,7 +11303,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11358,14 +11358,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11389,7 +11389,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11444,14 +11444,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11475,7 +11475,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11530,14 +11530,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11561,7 +11561,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11616,14 +11616,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11647,7 +11647,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11702,14 +11702,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11733,7 +11733,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11788,14 +11788,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11819,7 +11819,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11874,14 +11874,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11905,7 +11905,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11960,14 +11960,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12000,9 +12000,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>771525</xdr:colOff>
+          <xdr:colOff>774700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12051,14 +12051,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12085,15 +12085,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12142,14 +12142,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12171,15 +12171,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12228,14 +12228,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12264,7 +12264,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12319,14 +12319,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12350,7 +12350,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12405,14 +12405,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12436,7 +12436,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12491,14 +12491,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12522,7 +12522,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12577,14 +12577,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12608,7 +12608,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12663,14 +12663,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12694,7 +12694,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12749,14 +12749,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12780,7 +12780,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12835,14 +12835,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12866,7 +12866,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12921,14 +12921,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12952,7 +12952,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13007,14 +13007,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13038,7 +13038,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13093,14 +13093,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13124,7 +13124,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13179,14 +13179,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13210,7 +13210,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13265,14 +13265,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13296,7 +13296,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13351,14 +13351,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13657,24 +13657,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="90.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="90.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -13837,12 +13837,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>53</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>76</v>
@@ -13851,7 +13851,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>190</v>
       </c>
@@ -13885,7 +13885,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13907,7 +13907,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13929,7 +13929,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13951,7 +13951,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13973,7 +13973,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13995,7 +13995,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -14017,7 +14017,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -14039,7 +14039,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -14061,7 +14061,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -14069,7 +14069,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1143000</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14083,7 +14083,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -14108,17 +14108,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14133,7 +14133,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14141,7 +14141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14189,7 +14189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -14389,7 +14389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -14475,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>120</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>160</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>123</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>124</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>128</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>137</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>138</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>140</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>141</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>142</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>145</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>146</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>148</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>149</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>150</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>151</v>
       </c>
@@ -14827,7 +14827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -14850,9 +14850,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -14872,15 +14872,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14894,15 +14894,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14916,15 +14916,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14938,15 +14938,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14960,15 +14960,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14982,15 +14982,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15004,15 +15004,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15026,15 +15026,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15048,15 +15048,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15070,15 +15070,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15092,15 +15092,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15114,15 +15114,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15136,15 +15136,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15158,15 +15158,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15180,15 +15180,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15202,15 +15202,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15224,15 +15224,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15246,15 +15246,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15268,15 +15268,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15290,15 +15290,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15312,15 +15312,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15334,15 +15334,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15356,15 +15356,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15378,15 +15378,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15400,15 +15400,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15422,15 +15422,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15444,15 +15444,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15466,15 +15466,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15488,15 +15488,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15510,15 +15510,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15532,15 +15532,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15554,15 +15554,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15576,15 +15576,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15598,15 +15598,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15620,15 +15620,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15642,15 +15642,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15664,15 +15664,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15686,15 +15686,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15708,15 +15708,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15730,15 +15730,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15752,15 +15752,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15774,15 +15774,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15796,15 +15796,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15818,15 +15818,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15840,15 +15840,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15862,13 +15862,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15884,13 +15884,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>51</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15906,13 +15906,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15928,13 +15928,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15950,13 +15950,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15972,13 +15972,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15994,13 +15994,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16016,13 +16016,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16038,13 +16038,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16060,13 +16060,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16082,13 +16082,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>48</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16104,13 +16104,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16126,13 +16126,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16148,13 +16148,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>62</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>62</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16170,13 +16170,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>63</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>63</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16192,13 +16192,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>64</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16214,13 +16214,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>65</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>65</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16236,13 +16236,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>66</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16258,13 +16258,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>67</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16280,13 +16280,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>68</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16302,13 +16302,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>69</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16324,13 +16324,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>70</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>70</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16346,13 +16346,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>71</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>71</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16368,13 +16368,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>72</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>72</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16390,13 +16390,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>73</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>73</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16412,13 +16412,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>74</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>74</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16434,13 +16434,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>75</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16456,13 +16456,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>76</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>76</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16478,13 +16478,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>77</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>77</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16500,13 +16500,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>78</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>78</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16522,13 +16522,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>79</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16544,13 +16544,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>80</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16566,13 +16566,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>81</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>81</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16588,13 +16588,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>82</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>82</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16610,13 +16610,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>83</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16632,13 +16632,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>84</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>84</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16654,13 +16654,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>85</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16676,13 +16676,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>86</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>86</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16698,13 +16698,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>87</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>87</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16720,13 +16720,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16742,13 +16742,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16767,18 +16767,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="52.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
     <col min="4" max="4" width="104" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>201</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>202</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>204</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -17055,15 +17055,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17077,15 +17077,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17099,15 +17099,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17121,15 +17121,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17150,21 +17150,21 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="49.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" customWidth="1"/>
+    <col min="7" max="7" width="49.54296875" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -17343,12 +17343,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17372,12 +17372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>170</v>
       </c>
       <c r="C8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -17401,12 +17401,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>171</v>
       </c>
       <c r="C9" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -17430,12 +17430,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>169</v>
       </c>
       <c r="C10" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -17459,12 +17459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>87</v>
       </c>
       <c r="C11" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -17489,12 +17489,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -17519,12 +17519,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -17549,12 +17549,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>83</v>
       </c>
       <c r="C14" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -17579,12 +17579,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -17609,12 +17609,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>161</v>
       </c>
       <c r="C16" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <f>D11</f>
@@ -17640,12 +17640,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>162</v>
       </c>
       <c r="C17" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D20" si="1">D12</f>
@@ -17671,12 +17671,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>163</v>
       </c>
       <c r="C18" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
@@ -17702,12 +17702,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>164</v>
       </c>
       <c r="C19" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
@@ -17733,12 +17733,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>165</v>
       </c>
       <c r="C20" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
@@ -17764,12 +17764,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -17793,7 +17793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -17822,12 +17822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>88</v>
       </c>
       <c r="C23" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -17851,7 +17851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>183</v>
       </c>
@@ -17908,7 +17908,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>352425</xdr:rowOff>
+                    <xdr:rowOff>355600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17930,7 +17930,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17952,7 +17952,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17974,7 +17974,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17996,7 +17996,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18018,7 +18018,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18040,13 +18040,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18084,7 +18084,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18106,7 +18106,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18128,7 +18128,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18150,7 +18150,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18172,7 +18172,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18200,7 +18200,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18216,7 +18216,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18238,7 +18238,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18260,7 +18260,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18282,7 +18282,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18304,7 +18304,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18326,7 +18326,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18348,7 +18348,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18370,7 +18370,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18397,13 +18397,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>0.83115000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -18501,14 +18501,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="66.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="66.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -18542,7 +18542,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -18576,7 +18576,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -18590,7 +18590,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -18638,9 +18638,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>771525</xdr:colOff>
+                    <xdr:colOff>774700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18661,13 +18661,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>193</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>199</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -18803,15 +18803,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18825,15 +18825,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18854,14 +18854,14 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -18872,67 +18872,67 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C9" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C11" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C12" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C14" s="4" t="b">
         <v>0</v>
       </c>
@@ -18954,7 +18954,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18976,7 +18976,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18998,7 +18998,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19020,7 +19020,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19042,7 +19042,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19064,7 +19064,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19086,7 +19086,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19108,7 +19108,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19130,7 +19130,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19152,7 +19152,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19174,7 +19174,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19196,7 +19196,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19218,7 +19218,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>

--- a/input/Set_and_Control_Parameters.xlsx
+++ b/input/Set_and_Control_Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Master_Semester_1\IDP\endemo2\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1745E41-AFD5-4627-9C5F-601AE5D4167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890915CF-F7B0-4325-91C6-FBB93BFB479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="19200" windowHeight="11260" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="730" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralSettings" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,9 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{04D4C06B-8268-4FCD-9269-B3F03D9D6D63}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     Refers to the sum of primary and secondary steel. If "steel" is activated, steel_prim and steel_sec should not be additionally activated and the other way round.</t>
       </text>
     </comment>
@@ -818,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1302,7 +1302,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1396,7 +1396,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1453,14 +1453,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1482,7 +1482,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1539,14 +1539,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1568,7 +1568,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1625,14 +1625,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1654,7 +1654,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1711,14 +1711,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1740,7 +1740,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1797,14 +1797,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1826,7 +1826,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1883,14 +1883,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1912,7 +1912,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1969,14 +1969,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1998,7 +1998,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2055,14 +2055,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2084,7 +2084,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2092,7 +2092,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>1143000</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2141,14 +2141,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2170,7 +2170,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2227,14 +2227,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2261,9 +2261,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2318,14 +2318,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2347,15 +2347,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2404,14 +2404,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2433,15 +2433,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2490,14 +2490,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2519,15 +2519,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2576,14 +2576,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2605,15 +2605,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2662,14 +2662,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2691,15 +2691,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2748,14 +2748,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2777,15 +2777,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2834,14 +2834,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2863,15 +2863,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2920,14 +2920,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2949,15 +2949,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3006,14 +3006,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3035,15 +3035,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3092,14 +3092,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3121,15 +3121,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3178,14 +3178,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3207,15 +3207,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3264,14 +3264,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3293,15 +3293,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3350,14 +3350,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3379,15 +3379,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3436,14 +3436,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3465,15 +3465,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3522,14 +3522,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3551,15 +3551,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3608,14 +3608,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3637,15 +3637,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3694,14 +3694,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3723,15 +3723,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3780,14 +3780,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3809,15 +3809,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3866,14 +3866,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3895,15 +3895,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3952,14 +3952,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3981,15 +3981,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4038,14 +4038,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4067,15 +4067,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4124,14 +4124,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4153,15 +4153,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4210,14 +4210,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4239,15 +4239,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4296,14 +4296,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4325,15 +4325,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4382,14 +4382,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4411,15 +4411,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4468,14 +4468,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4497,15 +4497,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4554,14 +4554,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4583,15 +4583,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4640,14 +4640,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4669,15 +4669,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4726,14 +4726,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4755,15 +4755,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4812,14 +4812,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4841,15 +4841,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4898,14 +4898,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4927,15 +4927,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4984,14 +4984,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5013,15 +5013,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5070,14 +5070,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5099,15 +5099,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5156,14 +5156,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5185,15 +5185,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5242,14 +5242,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5271,15 +5271,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5328,14 +5328,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5357,15 +5357,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5414,14 +5414,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5443,15 +5443,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5500,14 +5500,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5529,15 +5529,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5586,14 +5586,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5615,15 +5615,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5672,14 +5672,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5701,15 +5701,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5758,14 +5758,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5787,15 +5787,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5844,14 +5844,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5873,15 +5873,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5930,14 +5930,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5959,15 +5959,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6016,14 +6016,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6045,15 +6045,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6102,14 +6102,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6131,15 +6131,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6188,14 +6188,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6217,13 +6217,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6274,14 +6274,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6303,13 +6303,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6360,14 +6360,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6389,13 +6389,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6446,14 +6446,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6475,13 +6475,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6532,14 +6532,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6561,13 +6561,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6618,14 +6618,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6647,13 +6647,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6704,14 +6704,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6733,13 +6733,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6790,14 +6790,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6819,13 +6819,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6876,14 +6876,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6905,13 +6905,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6962,14 +6962,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6991,13 +6991,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7048,14 +7048,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7077,13 +7077,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7134,14 +7134,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7163,13 +7163,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7220,14 +7220,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7249,13 +7249,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7306,14 +7306,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7335,13 +7335,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7392,14 +7392,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7421,13 +7421,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>63</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7478,14 +7478,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7507,13 +7507,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>64</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7564,14 +7564,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7593,13 +7593,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>65</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>65</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7650,14 +7650,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7679,13 +7679,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>66</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7736,14 +7736,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7765,13 +7765,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>67</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7822,14 +7822,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7851,13 +7851,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>68</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7908,14 +7908,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7937,13 +7937,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>69</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7994,14 +7994,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8023,13 +8023,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>70</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>70</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8080,14 +8080,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8109,13 +8109,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>71</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>71</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8166,14 +8166,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8195,13 +8195,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>72</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8252,14 +8252,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8281,13 +8281,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>73</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>73</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8338,14 +8338,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8367,13 +8367,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>74</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8424,14 +8424,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8453,13 +8453,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>75</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8510,14 +8510,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8539,13 +8539,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>76</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>76</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8596,14 +8596,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8625,13 +8625,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>77</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8682,14 +8682,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8711,13 +8711,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>78</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8768,14 +8768,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8797,13 +8797,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>79</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8854,14 +8854,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8883,13 +8883,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>80</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8940,14 +8940,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8969,13 +8969,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>81</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>81</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9026,14 +9026,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9055,13 +9055,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>82</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9112,14 +9112,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9141,13 +9141,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9198,14 +9198,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9227,13 +9227,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>84</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9284,14 +9284,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9313,13 +9313,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>85</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9370,14 +9370,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9399,13 +9399,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>86</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9456,14 +9456,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9485,13 +9485,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>87</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9542,14 +9542,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9571,13 +9571,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9628,14 +9628,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9657,13 +9657,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9714,14 +9714,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9748,15 +9748,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9805,14 +9805,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9834,15 +9834,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9891,14 +9891,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9920,15 +9920,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9977,14 +9977,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10006,15 +10006,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10063,14 +10063,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10099,7 +10099,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>355600</xdr:rowOff>
+          <xdr:rowOff>352425</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10154,14 +10154,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10185,7 +10185,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10240,14 +10240,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10271,7 +10271,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10326,14 +10326,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10357,7 +10357,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10412,14 +10412,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10443,7 +10443,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10498,14 +10498,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10529,7 +10529,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10584,14 +10584,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10615,13 +10615,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>742950</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10670,14 +10670,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10756,14 +10756,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10787,7 +10787,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10842,14 +10842,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10873,7 +10873,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10928,14 +10928,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10959,7 +10959,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11014,14 +11014,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11045,7 +11045,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11100,14 +11100,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11131,7 +11131,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11186,14 +11186,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11223,7 +11223,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>742950</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11272,14 +11272,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11303,7 +11303,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11358,14 +11358,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11389,7 +11389,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11444,14 +11444,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11475,7 +11475,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11530,14 +11530,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11561,7 +11561,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11616,14 +11616,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11647,7 +11647,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11702,14 +11702,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11733,7 +11733,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11788,14 +11788,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11819,7 +11819,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11874,14 +11874,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11905,7 +11905,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11960,14 +11960,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12000,9 +12000,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>774700</xdr:colOff>
+          <xdr:colOff>771525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12051,14 +12051,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12085,15 +12085,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12142,14 +12142,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12171,15 +12171,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12228,14 +12228,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12264,7 +12264,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12319,14 +12319,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12350,7 +12350,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12405,14 +12405,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12436,7 +12436,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12491,14 +12491,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12522,7 +12522,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12577,14 +12577,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12608,7 +12608,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12663,14 +12663,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12694,7 +12694,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12749,14 +12749,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12780,7 +12780,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12835,14 +12835,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12866,7 +12866,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12921,14 +12921,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12952,7 +12952,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13007,14 +13007,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13038,7 +13038,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13093,14 +13093,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13124,7 +13124,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13179,14 +13179,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13210,7 +13210,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13265,14 +13265,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13296,7 +13296,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13351,14 +13351,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13657,24 +13657,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="90.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -13837,12 +13837,12 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>76</v>
@@ -13851,7 +13851,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>190</v>
       </c>
@@ -13885,7 +13885,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13907,7 +13907,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13929,7 +13929,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13951,7 +13951,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13973,7 +13973,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13995,7 +13995,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -14017,7 +14017,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -14039,7 +14039,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -14061,7 +14061,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -14069,7 +14069,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1143000</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14083,7 +14083,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -14112,13 +14112,13 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14133,7 +14133,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14141,7 +14141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14189,7 +14189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -14389,7 +14389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -14475,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>120</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>160</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>123</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>124</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>128</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>137</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>138</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>140</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>141</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>142</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>145</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>146</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>148</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>149</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>150</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>151</v>
       </c>
@@ -14827,7 +14827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -14850,9 +14850,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -14872,15 +14872,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14894,15 +14894,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14916,15 +14916,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14938,15 +14938,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14960,15 +14960,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14982,15 +14982,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15004,15 +15004,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15026,15 +15026,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15048,15 +15048,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15070,15 +15070,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15092,15 +15092,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15114,15 +15114,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15136,15 +15136,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15158,15 +15158,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15180,15 +15180,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15202,15 +15202,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15224,15 +15224,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15246,15 +15246,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15268,15 +15268,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15290,15 +15290,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15312,15 +15312,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15334,15 +15334,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15356,15 +15356,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15378,15 +15378,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15400,15 +15400,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15422,15 +15422,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15444,15 +15444,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15466,15 +15466,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15488,15 +15488,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15510,15 +15510,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15532,15 +15532,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15554,15 +15554,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15576,15 +15576,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15598,15 +15598,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15620,15 +15620,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15642,15 +15642,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15664,15 +15664,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15686,15 +15686,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15708,15 +15708,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15730,15 +15730,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15752,15 +15752,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15774,15 +15774,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15796,15 +15796,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15818,15 +15818,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15840,15 +15840,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15862,13 +15862,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15884,13 +15884,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>51</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15906,13 +15906,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15928,13 +15928,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15950,13 +15950,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15972,13 +15972,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15994,13 +15994,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16016,13 +16016,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16038,13 +16038,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16060,13 +16060,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16082,13 +16082,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>48</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16104,13 +16104,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16126,13 +16126,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16148,13 +16148,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>62</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>62</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16170,13 +16170,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>63</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>63</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16192,13 +16192,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>64</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16214,13 +16214,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>65</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>65</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16236,13 +16236,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>66</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16258,13 +16258,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>67</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16280,13 +16280,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>68</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16302,13 +16302,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>69</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16324,13 +16324,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>70</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>70</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16346,13 +16346,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>71</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>71</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16368,13 +16368,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>72</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>72</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16390,13 +16390,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>73</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>73</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16412,13 +16412,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>74</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>74</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16434,13 +16434,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>75</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16456,13 +16456,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>76</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>76</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16478,13 +16478,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>77</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>77</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16500,13 +16500,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>78</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>78</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16522,13 +16522,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>79</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16544,13 +16544,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>80</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16566,13 +16566,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>81</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>81</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16588,13 +16588,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>82</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>82</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16610,13 +16610,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>83</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16632,13 +16632,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>84</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>84</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16654,13 +16654,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>85</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16676,13 +16676,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>86</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>86</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16698,13 +16698,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>87</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>87</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16720,13 +16720,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16742,13 +16742,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16767,18 +16767,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="52.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="104" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>201</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>202</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>204</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -17055,15 +17055,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>733425</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17077,15 +17077,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>733425</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17099,15 +17099,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>733425</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17121,15 +17121,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>733425</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17150,21 +17150,21 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" customWidth="1"/>
-    <col min="7" max="7" width="49.54296875" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="49.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -17430,7 +17430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>163</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>164</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -17764,7 +17764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -17793,7 +17793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -17822,7 +17822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>183</v>
       </c>
@@ -17908,7 +17908,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>355600</xdr:rowOff>
+                    <xdr:rowOff>352425</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17930,7 +17930,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17952,7 +17952,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17974,7 +17974,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17996,7 +17996,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18018,7 +18018,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18040,13 +18040,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18084,7 +18084,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18106,7 +18106,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18128,7 +18128,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18150,7 +18150,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18172,7 +18172,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18200,7 +18200,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18216,7 +18216,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18238,7 +18238,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18260,7 +18260,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18282,7 +18282,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18304,7 +18304,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18326,7 +18326,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18348,7 +18348,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18370,7 +18370,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18397,13 +18397,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>0.83115000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -18501,14 +18501,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="66.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="66.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -18542,7 +18542,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -18576,7 +18576,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -18590,7 +18590,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -18638,9 +18638,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>774700</xdr:colOff>
+                    <xdr:colOff>771525</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18661,13 +18661,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.7265625" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>193</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>199</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -18803,15 +18803,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>733425</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18825,15 +18825,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>733425</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18854,14 +18854,14 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -18872,67 +18872,67 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="b">
         <v>0</v>
       </c>
@@ -18954,7 +18954,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18976,7 +18976,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18998,7 +18998,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19020,7 +19020,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19042,7 +19042,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19064,7 +19064,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19086,7 +19086,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19108,7 +19108,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19130,7 +19130,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19152,7 +19152,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19174,7 +19174,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19196,7 +19196,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19218,7 +19218,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>

--- a/input/Set_and_Control_Parameters.xlsx
+++ b/input/Set_and_Control_Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Master_Semester_1\IDP\endemo2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890915CF-F7B0-4325-91C6-FBB93BFB479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F26066F-5535-44C6-A6D7-71BE69485E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="730" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4010" yWindow="2100" windowWidth="19200" windowHeight="11260" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralSettings" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,9 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{04D4C06B-8268-4FCD-9269-B3F03D9D6D63}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Refers to the sum of primary and secondary steel. If "steel" is activated, steel_prim and steel_sec should not be additionally activated and the other way round.</t>
       </text>
     </comment>
@@ -692,7 +692,7 @@
     <t>The defined proportion contributes to hydrogen demand. Values from 0 to 1.</t>
   </si>
   <si>
-    <t>Quadratic GDP function</t>
+    <t>Linear time trend</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -926,7 +926,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1014,27 +1014,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1042,43 +1042,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1086,67 +1086,67 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$27" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$27" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$28" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$28" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$29" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$29" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$30" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$31" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$32" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$34" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$34" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$33" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$33" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1258,7 +1258,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1396,7 +1396,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1453,14 +1453,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1482,7 +1482,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1539,14 +1539,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1568,7 +1568,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1625,14 +1625,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1654,7 +1654,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1711,14 +1711,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1740,7 +1740,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1797,14 +1797,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1826,7 +1826,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1883,14 +1883,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1912,7 +1912,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1969,14 +1969,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1998,7 +1998,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2055,14 +2055,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2084,7 +2084,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2092,7 +2092,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>1143000</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2141,14 +2141,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2170,7 +2170,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2227,14 +2227,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2261,9 +2261,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2318,14 +2318,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2347,15 +2347,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2404,14 +2404,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2433,15 +2433,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2490,14 +2490,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2519,15 +2519,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2576,14 +2576,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2605,15 +2605,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2662,14 +2662,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2691,15 +2691,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2748,14 +2748,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2777,15 +2777,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2834,14 +2834,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2863,15 +2863,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2920,14 +2920,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2949,15 +2949,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3006,14 +3006,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3035,15 +3035,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3092,14 +3092,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3121,15 +3121,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3178,14 +3178,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3207,15 +3207,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3264,14 +3264,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3293,15 +3293,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3350,14 +3350,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3379,15 +3379,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3436,14 +3436,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3465,15 +3465,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3522,14 +3522,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3551,15 +3551,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3608,14 +3608,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3637,15 +3637,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3694,14 +3694,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3723,15 +3723,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3780,14 +3780,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3809,15 +3809,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3866,14 +3866,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3895,15 +3895,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3952,14 +3952,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3981,15 +3981,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4038,14 +4038,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4067,15 +4067,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4124,14 +4124,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4153,15 +4153,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4210,14 +4210,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4239,15 +4239,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4296,14 +4296,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4325,15 +4325,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4382,14 +4382,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4411,15 +4411,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4468,14 +4468,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4497,15 +4497,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4554,14 +4554,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4583,15 +4583,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4640,14 +4640,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4669,15 +4669,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4726,14 +4726,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4755,15 +4755,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4812,14 +4812,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4841,15 +4841,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4898,14 +4898,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4927,15 +4927,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4984,14 +4984,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5013,15 +5013,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5070,14 +5070,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5099,15 +5099,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5156,14 +5156,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5185,15 +5185,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5242,14 +5242,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5271,15 +5271,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5328,14 +5328,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5357,15 +5357,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5414,14 +5414,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5443,15 +5443,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5500,14 +5500,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5529,15 +5529,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5586,14 +5586,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5615,15 +5615,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5672,14 +5672,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5701,15 +5701,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5758,14 +5758,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5787,15 +5787,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5844,14 +5844,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5873,15 +5873,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5930,14 +5930,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5959,15 +5959,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6016,14 +6016,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6045,15 +6045,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6102,14 +6102,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6131,15 +6131,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6188,14 +6188,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6217,13 +6217,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6274,14 +6274,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6303,13 +6303,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6360,14 +6360,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6389,13 +6389,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6446,14 +6446,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6475,13 +6475,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6532,14 +6532,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6561,13 +6561,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6618,14 +6618,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6647,13 +6647,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6704,14 +6704,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6733,13 +6733,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6790,14 +6790,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6819,13 +6819,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6876,14 +6876,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6905,13 +6905,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6962,14 +6962,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6991,13 +6991,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7048,14 +7048,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7077,13 +7077,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7134,14 +7134,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7163,13 +7163,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7220,14 +7220,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7249,13 +7249,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7306,14 +7306,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7335,13 +7335,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7392,14 +7392,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7421,13 +7421,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>63</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7478,14 +7478,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7507,13 +7507,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>64</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7564,14 +7564,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7593,13 +7593,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>65</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>65</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7650,14 +7650,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7679,13 +7679,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>66</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7736,14 +7736,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7765,13 +7765,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>67</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7822,14 +7822,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7851,13 +7851,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>68</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7908,14 +7908,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7937,13 +7937,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>69</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7994,14 +7994,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8023,13 +8023,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>70</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>70</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8080,14 +8080,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8109,13 +8109,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>71</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>71</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8166,14 +8166,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8195,13 +8195,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>72</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8252,14 +8252,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8281,13 +8281,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>73</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>73</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8338,14 +8338,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8367,13 +8367,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>74</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8424,14 +8424,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8453,13 +8453,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>75</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8510,14 +8510,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8539,13 +8539,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>76</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>76</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8596,14 +8596,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8625,13 +8625,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>77</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8682,14 +8682,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8711,13 +8711,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>78</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8768,14 +8768,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8797,13 +8797,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>79</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8854,14 +8854,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8883,13 +8883,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>80</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8940,14 +8940,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8969,13 +8969,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>81</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>81</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9026,14 +9026,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9055,13 +9055,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>82</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9112,14 +9112,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9141,13 +9141,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9198,14 +9198,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9227,13 +9227,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>84</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9284,14 +9284,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9313,13 +9313,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>85</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9370,14 +9370,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9399,13 +9399,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>86</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9456,14 +9456,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9485,13 +9485,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>87</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9542,14 +9542,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9571,13 +9571,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9628,14 +9628,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9657,13 +9657,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>755650</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9714,14 +9714,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9748,15 +9748,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9805,14 +9805,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9834,15 +9834,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9891,14 +9891,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9920,15 +9920,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9977,14 +9977,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10006,15 +10006,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10063,14 +10063,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10099,7 +10099,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>352425</xdr:rowOff>
+          <xdr:rowOff>355600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10154,14 +10154,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10185,7 +10185,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10240,14 +10240,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10271,7 +10271,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10326,14 +10326,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10357,7 +10357,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10412,14 +10412,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10443,7 +10443,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10498,14 +10498,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10529,7 +10529,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10584,14 +10584,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10615,13 +10615,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>742950</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10670,14 +10670,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10756,14 +10756,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10787,7 +10787,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10842,14 +10842,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10873,7 +10873,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10928,14 +10928,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10959,7 +10959,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11014,14 +11014,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11045,7 +11045,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11100,14 +11100,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11131,7 +11131,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11186,14 +11186,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11223,7 +11223,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>742950</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11272,14 +11272,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11303,7 +11303,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11358,14 +11358,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11389,7 +11389,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11444,14 +11444,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11475,7 +11475,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11530,14 +11530,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11561,7 +11561,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11616,14 +11616,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11647,7 +11647,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11702,14 +11702,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11733,7 +11733,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11788,14 +11788,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11819,7 +11819,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11874,14 +11874,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11905,7 +11905,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11960,14 +11960,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12000,9 +12000,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>771525</xdr:colOff>
+          <xdr:colOff>774700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12051,14 +12051,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12085,15 +12085,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12142,14 +12142,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12171,15 +12171,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12228,14 +12228,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12264,7 +12264,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12319,14 +12319,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12350,7 +12350,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12405,14 +12405,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12436,7 +12436,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12491,14 +12491,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12522,7 +12522,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12577,14 +12577,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12608,7 +12608,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12663,14 +12663,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12694,7 +12694,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12749,14 +12749,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12780,7 +12780,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12835,14 +12835,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12866,7 +12866,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12921,14 +12921,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12952,7 +12952,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13007,14 +13007,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13038,7 +13038,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13093,14 +13093,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13124,7 +13124,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13179,14 +13179,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13210,7 +13210,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13265,14 +13265,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13296,7 +13296,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13351,14 +13351,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13657,24 +13657,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="90.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="90.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -13750,12 +13750,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>61</v>
@@ -13764,7 +13764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -13778,12 +13778,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>63</v>
@@ -13792,12 +13792,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -13806,12 +13806,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>110</v>
@@ -13820,7 +13820,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>190</v>
       </c>
@@ -13885,7 +13885,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13907,7 +13907,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13929,7 +13929,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13951,7 +13951,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13973,7 +13973,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13995,7 +13995,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -14017,7 +14017,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -14039,7 +14039,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -14061,7 +14061,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -14069,7 +14069,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1143000</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14083,7 +14083,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -14112,13 +14112,13 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14133,7 +14133,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14141,15 +14141,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14157,255 +14157,255 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -14475,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>120</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>160</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>123</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>124</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>128</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>137</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>138</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>140</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>141</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>142</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>145</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>146</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>148</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>149</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>150</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>151</v>
       </c>
@@ -14827,7 +14827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -14850,9 +14850,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -14872,15 +14872,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14894,15 +14894,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14916,15 +14916,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14938,15 +14938,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14960,15 +14960,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14982,15 +14982,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15004,15 +15004,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15026,15 +15026,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15048,15 +15048,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15070,15 +15070,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15092,15 +15092,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15114,15 +15114,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15136,15 +15136,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15158,15 +15158,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15180,15 +15180,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15202,15 +15202,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15224,15 +15224,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15246,15 +15246,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15268,15 +15268,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15290,15 +15290,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15312,15 +15312,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15334,15 +15334,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15356,15 +15356,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15378,15 +15378,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15400,15 +15400,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15422,15 +15422,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15444,15 +15444,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15466,15 +15466,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15488,15 +15488,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15510,15 +15510,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15532,15 +15532,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15554,15 +15554,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15576,15 +15576,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15598,15 +15598,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15620,15 +15620,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15642,15 +15642,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15664,15 +15664,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15686,15 +15686,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15708,15 +15708,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15730,15 +15730,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15752,15 +15752,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15774,15 +15774,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15796,15 +15796,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15818,15 +15818,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15840,15 +15840,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15862,13 +15862,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15884,13 +15884,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>51</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15906,13 +15906,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15928,13 +15928,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15950,13 +15950,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15972,13 +15972,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15994,13 +15994,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16016,13 +16016,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16038,13 +16038,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16060,13 +16060,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16082,13 +16082,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>48</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16104,13 +16104,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16126,13 +16126,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16148,13 +16148,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>62</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>62</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16170,13 +16170,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>63</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>63</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16192,13 +16192,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>64</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16214,13 +16214,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>65</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>65</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16236,13 +16236,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>66</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16258,13 +16258,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>67</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16280,13 +16280,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>68</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16302,13 +16302,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>69</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16324,13 +16324,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>70</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>70</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16346,13 +16346,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>71</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>71</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16368,13 +16368,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>72</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>72</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16390,13 +16390,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>73</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>73</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16412,13 +16412,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>74</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>74</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16434,13 +16434,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>75</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16456,13 +16456,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>76</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>76</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16478,13 +16478,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>77</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>77</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16500,13 +16500,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>78</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>78</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16522,13 +16522,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>79</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16544,13 +16544,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>80</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16566,13 +16566,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>81</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>81</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16588,13 +16588,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>82</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>82</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16610,13 +16610,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>83</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16632,13 +16632,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>84</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>84</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16654,13 +16654,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>85</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16676,13 +16676,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>86</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>86</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16698,13 +16698,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>87</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>87</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16720,13 +16720,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16742,13 +16742,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>752475</xdr:colOff>
+                    <xdr:colOff>755650</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16767,18 +16767,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="52.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
     <col min="4" max="4" width="104" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>201</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>202</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>204</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -17055,15 +17055,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17077,15 +17077,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17099,15 +17099,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17121,15 +17121,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17150,21 +17150,21 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="49.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" customWidth="1"/>
+    <col min="7" max="7" width="49.54296875" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -17430,7 +17430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>163</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>164</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -17764,7 +17764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -17793,7 +17793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -17822,7 +17822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>183</v>
       </c>
@@ -17908,7 +17908,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>352425</xdr:rowOff>
+                    <xdr:rowOff>355600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17930,7 +17930,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17952,7 +17952,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17974,7 +17974,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17996,7 +17996,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18018,7 +18018,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18040,13 +18040,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18084,7 +18084,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18106,7 +18106,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18128,7 +18128,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18150,7 +18150,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18172,7 +18172,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18200,7 +18200,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18216,7 +18216,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18238,7 +18238,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18260,7 +18260,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18282,7 +18282,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18304,7 +18304,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18326,7 +18326,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18348,7 +18348,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18370,7 +18370,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18397,13 +18397,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>0.83115000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -18501,14 +18501,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="66.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="66.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -18542,7 +18542,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -18576,7 +18576,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -18590,7 +18590,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -18638,9 +18638,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>771525</xdr:colOff>
+                    <xdr:colOff>774700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18661,13 +18661,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>193</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>199</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -18803,15 +18803,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18825,15 +18825,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18854,14 +18854,14 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -18872,67 +18872,67 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C9" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C11" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C12" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C14" s="4" t="b">
         <v>0</v>
       </c>
@@ -18954,7 +18954,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18976,7 +18976,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18998,7 +18998,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19020,7 +19020,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19042,7 +19042,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19064,7 +19064,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19086,7 +19086,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19108,7 +19108,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19130,7 +19130,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19152,7 +19152,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19174,7 +19174,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19196,7 +19196,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19218,7 +19218,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>

--- a/input/Set_and_Control_Parameters.xlsx
+++ b/input/Set_and_Control_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Master_Semester_1\IDP\endemo2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F26066F-5535-44C6-A6D7-71BE69485E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266D79C4-D3CA-4350-9EB7-274FD6579C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4010" yWindow="2100" windowWidth="19200" windowHeight="11260" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="2100" windowWidth="19200" windowHeight="11260" tabRatio="730" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralSettings" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="209">
   <si>
     <t>Country</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Activates calculations for commertial, trade and services sector.</t>
   </si>
   <si>
-    <t>Has to be active at least for the first forecast calculation.</t>
-  </si>
-  <si>
     <t>Forecast of load profiles. If false, just yearly values are calculated.</t>
   </si>
   <si>
@@ -389,12 +386,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>World calculation</t>
-  </si>
-  <si>
-    <t>If a country outside of Europe is calculated.</t>
-  </si>
-  <si>
     <t>Brunei Darussalam</t>
   </si>
   <si>
@@ -693,6 +684,9 @@
   </si>
   <si>
     <t>Linear time trend</t>
+  </si>
+  <si>
+    <t>If NUTS2 resolution is activated, population forecast has to be active at least for the first calculation.</t>
   </si>
 </sst>
 </file>
@@ -801,9 +795,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -816,6 +807,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,119 +832,119 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C4" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C2" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$22" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
@@ -958,171 +952,167 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp127.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp128.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp129.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp130.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp131.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp132.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp133.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp134.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp135.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp136.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp137.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp138.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp139.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$27" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$27" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$28" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$28" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$29" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$29" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$30" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1130,43 +1120,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$31" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$32" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$34" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$34" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$33" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$33" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$36" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$36" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$37" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$37" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$38" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$38" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$39" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$39" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$40" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$40" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1174,219 +1164,219 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$42" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$42" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$43" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$43" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$44" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$44" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$45" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$45" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$46" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$46" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$47" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$47" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$54" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$54" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$52" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$52" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$51" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$51" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$55" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$55" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$56" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$56" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$57" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$57" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$58" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$58" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$59" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$59" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$60" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$60" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$50" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$50" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$49" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$49" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$62" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$62" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$61" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$61" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$63" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$63" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$64" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$64" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$65" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$65" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$66" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$66" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$67" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$67" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$68" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$68" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$69" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$69" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$70" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$70" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$71" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$71" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$72" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$72" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$73" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$74" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$75" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$76" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$77" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$78" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$79" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$80" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$81" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$82" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$83" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$73" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$74" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$75" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$76" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$77" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$78" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$79" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$80" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$81" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$82" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$83" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$84" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$84" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$85" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$85" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$86" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$86" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$87" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$87" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$88" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$88" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$53" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$53" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$48" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$48" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1999,13 +1989,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1143000</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2085,99 +2075,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1143000</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2060" name="Check Box 12" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2060"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>Activate</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>1143000</xdr:colOff>
-          <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13655,10 +13559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13699,10 +13603,10 @@
         <v>44</v>
       </c>
       <c r="C2" s="5">
-        <v>2018</v>
+        <v>2050</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="5">
         <v>2050</v>
@@ -13727,7 +13631,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -13741,7 +13645,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -13772,7 +13676,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>56</v>
@@ -13783,10 +13687,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>56</v>
@@ -13797,77 +13701,64 @@
         <v>51</v>
       </c>
       <c r="C9" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>73</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2016</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2016</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2016</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2016</v>
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{84BA2A67-2FC3-451D-BC2B-A22C158F230C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{84BA2A67-2FC3-451D-BC2B-A22C158F230C}">
       <formula1>"2016, 2021"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14040,13 +13931,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1143000</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14056,41 +13947,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2060" r:id="rId12" name="Check Box 12">
+            <control shapeId="2061" r:id="rId12" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>9</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1143000</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2061" r:id="rId13" name="Check Box 13">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>1143000</xdr:colOff>
-                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14108,7 +13977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -14146,7 +14015,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -14162,7 +14031,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -14170,7 +14039,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -14178,7 +14047,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -14186,7 +14055,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -14194,7 +14063,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -14202,7 +14071,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -14210,7 +14079,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -14218,7 +14087,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -14226,7 +14095,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -14234,7 +14103,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -14242,7 +14111,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -14250,7 +14119,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -14258,7 +14127,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -14266,7 +14135,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -14274,7 +14143,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -14282,7 +14151,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -14290,7 +14159,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -14298,7 +14167,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -14306,7 +14175,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -14314,7 +14183,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -14322,7 +14191,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -14330,7 +14199,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -14338,7 +14207,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -14346,7 +14215,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -14354,7 +14223,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -14362,7 +14231,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -14370,7 +14239,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -14378,7 +14247,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -14386,7 +14255,7 @@
         <v>35</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -14394,7 +14263,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -14402,7 +14271,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -14424,12 +14293,12 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -14437,7 +14306,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -14445,7 +14314,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -14453,7 +14322,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -14461,7 +14330,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -14469,7 +14338,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -14477,7 +14346,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -14485,7 +14354,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -14493,7 +14362,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -14501,7 +14370,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -14509,7 +14378,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -14517,7 +14386,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -14525,7 +14394,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -14533,7 +14402,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -14541,7 +14410,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -14549,7 +14418,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -14557,7 +14426,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -14565,7 +14434,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -14573,7 +14442,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -14581,7 +14450,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -14589,7 +14458,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -14597,7 +14466,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -14605,7 +14474,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -14613,7 +14482,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -14621,7 +14490,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -14629,7 +14498,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -14637,7 +14506,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -14645,7 +14514,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -14653,7 +14522,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -14661,7 +14530,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -14669,7 +14538,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -14677,7 +14546,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -14685,7 +14554,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -14693,7 +14562,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -14701,7 +14570,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -14709,7 +14578,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -14717,7 +14586,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -14725,7 +14594,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -14733,7 +14602,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -14741,7 +14610,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -14749,7 +14618,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -14757,7 +14626,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -14765,7 +14634,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -14773,7 +14642,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -14781,7 +14650,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -14789,7 +14658,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -14797,7 +14666,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -14805,7 +14674,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -14813,7 +14682,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -14821,7 +14690,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -14829,7 +14698,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -16797,44 +16666,44 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
         <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -16842,7 +16711,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -16853,13 +16722,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
@@ -16867,7 +16736,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
@@ -16876,7 +16745,7 @@
         <v>2009</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>2009</v>
@@ -16884,50 +16753,50 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>2019</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>2019</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="D9" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -16935,16 +16804,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -16952,16 +16821,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -16969,16 +16838,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -16986,16 +16855,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -17003,16 +16872,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B15" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -17020,16 +16889,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -17147,7 +17016,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17166,39 +17035,39 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="b">
@@ -17210,11 +17079,11 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>44</v>
@@ -17228,11 +17097,11 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -17240,11 +17109,11 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>44</v>
@@ -17258,10 +17127,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -17269,11 +17138,11 @@
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>44</v>
@@ -17287,10 +17156,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -17299,10 +17168,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H5" s="4">
         <v>100</v>
@@ -17316,7 +17185,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="b">
         <v>1</v>
@@ -17327,11 +17196,11 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>44</v>
@@ -17345,7 +17214,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="b">
         <v>1</v>
@@ -17356,11 +17225,11 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>44</v>
@@ -17374,7 +17243,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C8" s="4" t="b">
         <v>1</v>
@@ -17385,11 +17254,11 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>44</v>
@@ -17403,7 +17272,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C9" s="4" t="b">
         <v>1</v>
@@ -17414,11 +17283,11 @@
       <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>44</v>
@@ -17432,7 +17301,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C10" s="4" t="b">
         <v>1</v>
@@ -17443,11 +17312,11 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>44</v>
@@ -17461,7 +17330,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="4" t="b">
         <v>1</v>
@@ -17477,7 +17346,7 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H11" s="4">
         <v>100</v>
@@ -17491,7 +17360,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="4" t="b">
         <v>1</v>
@@ -17507,7 +17376,7 @@
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H12" s="4">
         <v>100</v>
@@ -17521,7 +17390,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="4" t="b">
         <v>1</v>
@@ -17537,7 +17406,7 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H13" s="4">
         <v>100</v>
@@ -17551,7 +17420,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4" t="b">
         <v>1</v>
@@ -17567,7 +17436,7 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H14" s="4">
         <v>100</v>
@@ -17581,7 +17450,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="4" t="b">
         <v>1</v>
@@ -17597,7 +17466,7 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H15" s="4">
         <v>100</v>
@@ -17611,7 +17480,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C16" s="4" t="b">
         <v>1</v>
@@ -17623,12 +17492,12 @@
       <c r="E16" s="4">
         <v>-0.23</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <f>100-F11</f>
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
@@ -17642,7 +17511,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C17" s="4" t="b">
         <v>1</v>
@@ -17654,12 +17523,12 @@
       <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <f t="shared" ref="F17:F20" si="2">100-F12</f>
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -17673,7 +17542,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C18" s="4" t="b">
         <v>1</v>
@@ -17685,12 +17554,12 @@
       <c r="E18" s="4">
         <v>-0.27</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -17704,7 +17573,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C19" s="4" t="b">
         <v>1</v>
@@ -17716,12 +17585,12 @@
       <c r="E19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -17735,7 +17604,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C20" s="4" t="b">
         <v>1</v>
@@ -17747,12 +17616,12 @@
       <c r="E20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -17766,7 +17635,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4" t="b">
         <v>1</v>
@@ -17777,11 +17646,11 @@
       <c r="E21" s="4">
         <v>0</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>44</v>
@@ -17795,7 +17664,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="4" t="b">
         <v>1</v>
@@ -17806,11 +17675,11 @@
       <c r="E22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>44</v>
@@ -17824,7 +17693,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="4" t="b">
         <v>1</v>
@@ -17835,11 +17704,11 @@
       <c r="E23" s="4">
         <v>0.33</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>44</v>
@@ -17853,31 +17722,31 @@
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="9"/>
+        <v>181</v>
+      </c>
+      <c r="C24" s="8"/>
       <c r="D24" s="6">
         <v>0.7</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>0.7</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H24" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>44</v>
       </c>
       <c r="I24" s="6">
         <v>0</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>0</v>
       </c>
     </row>
@@ -18419,41 +18288,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2">
         <v>0.45</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <v>0.45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="11">
         <v>0.83115000000000006</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="C3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="11">
         <v>0.83115000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -18461,13 +18330,13 @@
     </row>
     <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -18475,13 +18344,13 @@
     </row>
     <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18527,72 +18396,72 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
       <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -18601,7 +18470,7 @@
         <v>2018</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>2018</v>
@@ -18657,8 +18526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18686,10 +18555,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
@@ -18697,32 +18566,32 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>104</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
-      </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -18731,7 +18600,7 @@
         <v>2019</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>2019</v>
@@ -18739,7 +18608,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -18748,41 +18617,41 @@
         <v>0.5</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18863,13 +18732,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">

--- a/input/Set_and_Control_Parameters.xlsx
+++ b/input/Set_and_Control_Parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Master_Semester_1\IDP\endemo2\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tumde-my.sharepoint.com/personal/chris_kobalt_tum_de/Documents/Documents/Master_Semester_1/IDP/endemo2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266D79C4-D3CA-4350-9EB7-274FD6579C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F4AF2F6B-3CB2-4AC1-B816-49962119F171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A7D06FD-0E50-4190-BEF6-8BEE3D5257D6}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="2100" windowWidth="19200" windowHeight="11260" tabRatio="730" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14740" windowHeight="11260" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralSettings" sheetId="1" r:id="rId1"/>
@@ -828,7 +828,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1072,7 +1072,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1116,7 +1116,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13561,8 +13561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13617,7 +13617,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -13645,7 +13645,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -13659,7 +13659,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>61</v>
@@ -18263,7 +18263,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18526,8 +18526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/input/Set_and_Control_Parameters.xlsx
+++ b/input/Set_and_Control_Parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tumde-my.sharepoint.com/personal/chris_kobalt_tum_de/Documents/Documents/Master_Semester_1/IDP/endemo2/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\OneDrive - TUM\Documents\Master_Semester_1\IDP\endemo2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F4AF2F6B-3CB2-4AC1-B816-49962119F171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A7D06FD-0E50-4190-BEF6-8BEE3D5257D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B65F35-0F51-486D-A497-B2B6D1D941B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14740" windowHeight="11260" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5385" yWindow="1740" windowWidth="16815" windowHeight="11595" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralSettings" sheetId="1" r:id="rId1"/>
@@ -1248,7 +1248,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1386,7 +1386,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1443,7 +1443,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1472,7 +1472,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1529,7 +1529,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1558,7 +1558,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1615,7 +1615,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1644,7 +1644,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1701,7 +1701,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1730,7 +1730,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1787,7 +1787,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1816,7 +1816,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1873,7 +1873,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1902,7 +1902,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1959,7 +1959,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1988,7 +1988,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2045,7 +2045,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2074,7 +2074,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2131,7 +2131,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2165,9 +2165,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2222,7 +2222,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2251,15 +2251,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2308,7 +2308,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2337,15 +2337,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2394,7 +2394,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2423,15 +2423,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2480,7 +2480,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2509,15 +2509,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2566,7 +2566,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2595,15 +2595,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2652,7 +2652,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2681,15 +2681,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2738,7 +2738,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2767,15 +2767,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2824,7 +2824,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2853,15 +2853,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2910,7 +2910,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2939,15 +2939,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2996,7 +2996,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3025,15 +3025,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3082,7 +3082,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3111,15 +3111,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3168,7 +3168,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3197,15 +3197,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3254,7 +3254,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3283,15 +3283,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3340,7 +3340,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3369,15 +3369,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3426,7 +3426,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3455,15 +3455,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3512,7 +3512,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3541,15 +3541,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3598,7 +3598,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3627,15 +3627,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3684,7 +3684,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3713,15 +3713,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3770,7 +3770,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3799,15 +3799,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3856,7 +3856,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3885,15 +3885,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3942,7 +3942,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3971,15 +3971,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4028,7 +4028,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4057,15 +4057,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4114,7 +4114,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4143,15 +4143,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4200,7 +4200,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4229,15 +4229,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4286,7 +4286,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4315,15 +4315,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4372,7 +4372,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4401,15 +4401,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4458,7 +4458,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4487,15 +4487,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4544,7 +4544,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4573,15 +4573,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4630,7 +4630,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4659,15 +4659,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4716,7 +4716,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4745,15 +4745,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4802,7 +4802,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4831,15 +4831,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4888,7 +4888,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4917,15 +4917,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4974,7 +4974,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5003,15 +5003,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5060,7 +5060,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5089,15 +5089,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5146,7 +5146,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5175,15 +5175,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5232,7 +5232,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5261,15 +5261,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5318,7 +5318,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5347,15 +5347,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5404,7 +5404,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5433,15 +5433,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5490,7 +5490,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5519,15 +5519,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5576,7 +5576,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5605,15 +5605,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5662,7 +5662,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5691,15 +5691,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5748,7 +5748,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5777,15 +5777,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5834,7 +5834,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5863,15 +5863,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5920,7 +5920,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5949,15 +5949,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6006,7 +6006,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6035,15 +6035,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6092,7 +6092,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6121,13 +6121,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6178,7 +6178,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6207,13 +6207,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6264,7 +6264,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6293,13 +6293,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6350,7 +6350,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6379,13 +6379,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6436,7 +6436,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6465,13 +6465,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6522,7 +6522,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6551,13 +6551,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6608,7 +6608,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6637,13 +6637,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6694,7 +6694,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6723,13 +6723,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6780,7 +6780,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6809,13 +6809,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6866,7 +6866,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6895,13 +6895,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -6952,7 +6952,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6981,13 +6981,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7038,7 +7038,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7067,13 +7067,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7124,7 +7124,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7153,13 +7153,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7210,7 +7210,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7239,13 +7239,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7296,7 +7296,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7325,13 +7325,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>63</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7382,7 +7382,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7411,13 +7411,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>64</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7468,7 +7468,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7497,13 +7497,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>65</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>65</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7554,7 +7554,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7583,13 +7583,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>66</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7640,7 +7640,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7669,13 +7669,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>67</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7726,7 +7726,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7755,13 +7755,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>68</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7812,7 +7812,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7841,13 +7841,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>69</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7898,7 +7898,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7927,13 +7927,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>70</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>70</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -7984,7 +7984,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8013,13 +8013,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>71</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>71</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8070,7 +8070,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8099,13 +8099,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>72</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8156,7 +8156,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8185,13 +8185,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>73</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>73</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8242,7 +8242,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8271,13 +8271,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>74</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8328,7 +8328,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8357,13 +8357,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>75</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8414,7 +8414,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8443,13 +8443,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>76</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>76</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8500,7 +8500,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8529,13 +8529,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>77</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8586,7 +8586,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8615,13 +8615,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>78</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8672,7 +8672,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8701,13 +8701,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>79</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8758,7 +8758,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8787,13 +8787,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>80</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8844,7 +8844,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8873,13 +8873,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>81</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>81</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -8930,7 +8930,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8959,13 +8959,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>82</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9016,7 +9016,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9045,13 +9045,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9102,7 +9102,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9131,13 +9131,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>84</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9188,7 +9188,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9217,13 +9217,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>85</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9274,7 +9274,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9303,13 +9303,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>86</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9360,7 +9360,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9389,13 +9389,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>87</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9446,7 +9446,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9475,13 +9475,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9532,7 +9532,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9561,13 +9561,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>755650</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -9618,7 +9618,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9652,15 +9652,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9709,7 +9709,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9738,15 +9738,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9795,7 +9795,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9824,15 +9824,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9881,7 +9881,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9910,15 +9910,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9967,7 +9967,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10003,7 +10003,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>355600</xdr:rowOff>
+          <xdr:rowOff>352425</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10058,7 +10058,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10089,7 +10089,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10144,7 +10144,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10175,7 +10175,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10230,7 +10230,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10261,7 +10261,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10316,7 +10316,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10347,7 +10347,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10402,7 +10402,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10433,7 +10433,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10488,7 +10488,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10519,13 +10519,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>742950</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10574,7 +10574,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10660,7 +10660,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10691,7 +10691,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10746,7 +10746,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10777,7 +10777,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10832,7 +10832,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10863,7 +10863,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -10918,7 +10918,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10949,7 +10949,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11004,7 +11004,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11035,7 +11035,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11090,7 +11090,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11127,7 +11127,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>742950</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11176,7 +11176,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11207,7 +11207,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11262,7 +11262,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11293,7 +11293,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11348,7 +11348,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11379,7 +11379,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11434,7 +11434,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11465,7 +11465,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11520,7 +11520,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11551,7 +11551,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11606,7 +11606,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11637,7 +11637,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11692,7 +11692,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11723,7 +11723,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11778,7 +11778,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11809,7 +11809,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -11864,7 +11864,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11904,9 +11904,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>774700</xdr:colOff>
+          <xdr:colOff>771525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11955,7 +11955,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11989,15 +11989,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12046,7 +12046,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12075,15 +12075,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12132,7 +12132,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12168,7 +12168,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12223,7 +12223,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12254,7 +12254,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12309,7 +12309,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12340,7 +12340,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12395,7 +12395,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12426,7 +12426,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12481,7 +12481,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12512,7 +12512,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12567,7 +12567,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12598,7 +12598,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12653,7 +12653,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12684,7 +12684,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12739,7 +12739,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12770,7 +12770,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12825,7 +12825,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12856,7 +12856,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12911,7 +12911,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12942,7 +12942,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -12997,7 +12997,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -13028,7 +13028,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13083,7 +13083,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -13114,7 +13114,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13169,7 +13169,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -13200,7 +13200,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -13255,7 +13255,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -13562,23 +13562,23 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="90.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -13626,7 +13626,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -13696,12 +13696,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -13710,7 +13710,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>53</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -13776,7 +13776,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13798,7 +13798,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13820,7 +13820,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13842,7 +13842,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13864,7 +13864,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13886,7 +13886,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13908,7 +13908,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13930,7 +13930,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13952,7 +13952,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -13981,13 +13981,13 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14010,7 +14010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14034,7 +14034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14138,7 +14138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>110</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>113</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -14376,7 +14376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>154</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>151</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -14432,7 +14432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>123</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>124</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>155</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>129</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>130</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>131</v>
       </c>
@@ -14552,7 +14552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>132</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>134</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>135</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>136</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>137</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>156</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -14640,7 +14640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>142</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>143</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>144</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>146</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>147</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>148</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>149</v>
       </c>
@@ -14719,9 +14719,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -14741,15 +14741,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14763,15 +14763,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14785,15 +14785,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14807,15 +14807,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14829,15 +14829,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14851,15 +14851,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14873,15 +14873,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14895,15 +14895,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14917,15 +14917,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14939,15 +14939,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14961,15 +14961,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14983,15 +14983,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15005,15 +15005,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15027,15 +15027,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15049,15 +15049,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15071,15 +15071,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15093,15 +15093,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15115,15 +15115,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15137,15 +15137,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15159,15 +15159,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15181,15 +15181,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15203,15 +15203,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15225,15 +15225,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15247,15 +15247,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15269,15 +15269,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15291,15 +15291,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15313,15 +15313,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15335,15 +15335,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15357,15 +15357,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15379,15 +15379,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15401,15 +15401,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15423,15 +15423,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15445,15 +15445,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15467,15 +15467,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15489,15 +15489,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15511,15 +15511,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15533,15 +15533,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15555,15 +15555,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15577,15 +15577,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15599,15 +15599,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15621,15 +15621,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15643,15 +15643,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15665,15 +15665,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15687,15 +15687,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15709,15 +15709,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15731,13 +15731,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15753,13 +15753,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>51</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15775,13 +15775,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15797,13 +15797,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15819,13 +15819,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15841,13 +15841,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15863,13 +15863,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15885,13 +15885,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15907,13 +15907,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15929,13 +15929,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15951,13 +15951,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>48</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15973,13 +15973,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -15995,13 +15995,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16017,13 +16017,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>62</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>62</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16039,13 +16039,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>63</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>63</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16061,13 +16061,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>64</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16083,13 +16083,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>65</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>65</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16105,13 +16105,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>66</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16127,13 +16127,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>67</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16149,13 +16149,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>68</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16171,13 +16171,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>69</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16193,13 +16193,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>70</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>70</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16215,13 +16215,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>71</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>71</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16237,13 +16237,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>72</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>72</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16259,13 +16259,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>73</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>73</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16281,13 +16281,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>74</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>74</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16303,13 +16303,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>75</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16325,13 +16325,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>76</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>76</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16347,13 +16347,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>77</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>77</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16369,13 +16369,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>78</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>78</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16391,13 +16391,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>79</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16413,13 +16413,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>80</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16435,13 +16435,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>81</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>81</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16457,13 +16457,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>82</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>82</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16479,13 +16479,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>83</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16501,13 +16501,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>84</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>84</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16523,13 +16523,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>85</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16545,13 +16545,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>86</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>86</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16567,13 +16567,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>87</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>87</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16589,13 +16589,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16611,13 +16611,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>755650</xdr:colOff>
+                    <xdr:colOff>752475</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
@@ -16640,14 +16640,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="52.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="104" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>190</v>
       </c>
@@ -16751,7 +16751,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -16768,7 +16768,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>198</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>199</v>
       </c>
@@ -16802,7 +16802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>204</v>
       </c>
@@ -16887,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -16924,15 +16924,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>733425</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16946,15 +16946,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>733425</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16968,15 +16968,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>733425</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16990,15 +16990,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>733425</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17019,21 +17019,21 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" customWidth="1"/>
-    <col min="7" max="7" width="49.54296875" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="49.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>170</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -17095,7 +17095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -17212,7 +17212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>167</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>166</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -17358,7 +17358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -17448,7 +17448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -17509,7 +17509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -17540,7 +17540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>160</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -17691,7 +17691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>180</v>
       </c>
@@ -17777,7 +17777,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>355600</xdr:rowOff>
+                    <xdr:rowOff>352425</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17799,7 +17799,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17821,7 +17821,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17843,7 +17843,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17865,7 +17865,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17887,7 +17887,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17909,13 +17909,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17953,7 +17953,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17975,7 +17975,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -17997,7 +17997,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18019,7 +18019,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18041,7 +18041,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18069,7 +18069,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18085,7 +18085,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18107,7 +18107,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18129,7 +18129,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18151,7 +18151,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18173,7 +18173,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18195,7 +18195,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18217,7 +18217,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18239,7 +18239,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18266,13 +18266,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -18300,7 +18300,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>94</v>
       </c>
@@ -18314,7 +18314,7 @@
         <v>0.83115000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -18370,14 +18370,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="66.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="66.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -18394,7 +18394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -18411,7 +18411,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -18507,9 +18507,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>774700</xdr:colOff>
+                    <xdr:colOff>771525</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18530,13 +18530,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.7265625" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -18589,7 +18589,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -18623,7 +18623,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>196</v>
       </c>
@@ -18640,7 +18640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>197</v>
       </c>
@@ -18672,15 +18672,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>733425</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18694,15 +18694,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>733425</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18723,14 +18723,14 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
@@ -18741,67 +18741,67 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="b">
         <v>0</v>
       </c>
@@ -18823,7 +18823,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18845,7 +18845,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18867,7 +18867,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18889,7 +18889,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18911,7 +18911,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18933,7 +18933,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18955,7 +18955,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18977,7 +18977,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -18999,7 +18999,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19021,7 +19021,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19043,7 +19043,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19065,7 +19065,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -19087,7 +19087,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>

--- a/input/Set_and_Control_Parameters.xlsx
+++ b/input/Set_and_Control_Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\OneDrive - TUM\Documents\Master_Semester_1\IDP\endemo2\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B65F35-0F51-486D-A497-B2B6D1D941B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC9625F-0598-4EB5-890D-C3A1370DCC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="1740" windowWidth="16815" windowHeight="11595" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralSettings" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,9 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{04D4C06B-8268-4FCD-9269-B3F03D9D6D63}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     Refers to the sum of primary and secondary steel. If "steel" is activated, steel_prim and steel_sec should not be additionally activated and the other way round.</t>
       </text>
     </comment>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="211">
   <si>
     <t>Country</t>
   </si>
@@ -248,6 +248,9 @@
     <t>Activates calculations for commertial, trade and services sector.</t>
   </si>
   <si>
+    <t>Has to be active at least for the first forecast calculation.</t>
+  </si>
+  <si>
     <t>Forecast of load profiles. If false, just yearly values are calculated.</t>
   </si>
   <si>
@@ -386,6 +389,12 @@
     <t>Indonesia</t>
   </si>
   <si>
+    <t>World calculation</t>
+  </si>
+  <si>
+    <t>If a country outside of Europe is calculated.</t>
+  </si>
+  <si>
     <t>Brunei Darussalam</t>
   </si>
   <si>
@@ -684,9 +693,6 @@
   </si>
   <si>
     <t>Linear time trend</t>
-  </si>
-  <si>
-    <t>If NUTS2 resolution is activated, population forecast has to be active at least for the first calculation.</t>
   </si>
 </sst>
 </file>
@@ -795,6 +801,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -807,12 +816,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -828,123 +834,123 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C2" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$22" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C4" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
@@ -952,123 +958,127 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp127.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp128.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp128.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp129.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp129.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C4" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp130.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp130.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp131.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp132.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp133.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp134.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp134.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp135.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp135.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp136.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp136.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp137.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp137.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp138.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp138.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp139.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1076,43 +1086,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$27" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$28" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$27" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$29" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$28" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$30" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$29" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$31" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1120,43 +1130,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$32" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$34" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$34" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$33" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$33" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$36" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$37" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$38" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$39" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$40" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1164,219 +1174,219 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$41" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$42" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$43" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$44" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$45" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$46" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$47" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$54" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$52" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$51" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$55" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$56" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$57" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$58" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$59" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$60" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$50" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$49" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$62" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$61" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$63" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$64" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$65" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$66" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$67" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$68" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$69" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$70" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$71" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$72" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$73" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$74" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$75" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$76" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$77" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$78" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$79" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$80" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$81" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$82" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$83" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$84" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$85" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$86" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$87" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$88" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$53" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$48" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1450,7 +1460,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1536,7 +1546,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1622,7 +1632,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1708,7 +1718,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1794,7 +1804,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1880,7 +1890,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1966,7 +1976,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1989,13 +1999,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1143000</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2052,7 +2062,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2075,24 +2085,24 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1143000</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2061" name="Check Box 13" hidden="1">
+            <xdr:cNvPr id="2060" name="Check Box 12" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2061"/>
+                  <a14:compatExt spid="_x0000_s2060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2138,7 +2148,93 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Activate</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1143000</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2061" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2229,7 +2325,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2315,7 +2411,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2401,7 +2497,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2487,7 +2583,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2573,7 +2669,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2659,7 +2755,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2745,7 +2841,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2831,7 +2927,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2917,7 +3013,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3003,7 +3099,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3089,7 +3185,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3175,7 +3271,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3261,7 +3357,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3347,7 +3443,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3433,7 +3529,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3519,7 +3615,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3605,7 +3701,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3691,7 +3787,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3777,7 +3873,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3863,7 +3959,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3949,7 +4045,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4035,7 +4131,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4121,7 +4217,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4207,7 +4303,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4293,7 +4389,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4379,7 +4475,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4465,7 +4561,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4551,7 +4647,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4637,7 +4733,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4723,7 +4819,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4809,7 +4905,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4895,7 +4991,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4981,7 +5077,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5067,7 +5163,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5153,7 +5249,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5239,7 +5335,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5325,7 +5421,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5411,7 +5507,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5497,7 +5593,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5583,7 +5679,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5669,7 +5765,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5755,7 +5851,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5841,7 +5937,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5927,7 +6023,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6013,7 +6109,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6099,7 +6195,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6185,7 +6281,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6271,7 +6367,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6357,7 +6453,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6443,7 +6539,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6529,7 +6625,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6615,7 +6711,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6701,7 +6797,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6787,7 +6883,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6873,7 +6969,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6959,7 +7055,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7045,7 +7141,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7131,7 +7227,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7217,7 +7313,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7303,7 +7399,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7389,7 +7485,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7475,7 +7571,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7561,7 +7657,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7647,7 +7743,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7733,7 +7829,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7819,7 +7915,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7905,7 +8001,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7991,7 +8087,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8077,7 +8173,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8163,7 +8259,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8249,7 +8345,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8335,7 +8431,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8421,7 +8517,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8507,7 +8603,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8593,7 +8689,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8679,7 +8775,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8765,7 +8861,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8851,7 +8947,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8937,7 +9033,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9023,7 +9119,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9109,7 +9205,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9195,7 +9291,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9281,7 +9377,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9367,7 +9463,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9453,7 +9549,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9539,7 +9635,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9625,7 +9721,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9716,7 +9812,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9802,7 +9898,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9888,7 +9984,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9974,7 +10070,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10065,7 +10161,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10151,7 +10247,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10237,7 +10333,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10323,7 +10419,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10409,7 +10505,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10495,7 +10591,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10581,7 +10677,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10667,7 +10763,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10753,7 +10849,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10839,7 +10935,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10925,7 +11021,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11011,7 +11107,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11097,7 +11193,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11183,7 +11279,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11269,7 +11365,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11355,7 +11451,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11441,7 +11537,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11527,7 +11623,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11613,7 +11709,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11699,7 +11795,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11785,7 +11881,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11871,7 +11967,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11962,7 +12058,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12053,7 +12149,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12139,7 +12235,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12230,7 +12326,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12316,7 +12412,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12402,7 +12498,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12488,7 +12584,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12574,7 +12670,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12660,7 +12756,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12746,7 +12842,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12832,7 +12928,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12918,7 +13014,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13004,7 +13100,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13090,7 +13186,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13176,7 +13272,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13262,7 +13358,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13559,13 +13655,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -13603,10 +13699,10 @@
         <v>44</v>
       </c>
       <c r="C2" s="5">
-        <v>2050</v>
+        <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="5">
         <v>2050</v>
@@ -13617,7 +13713,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -13631,7 +13727,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -13676,7 +13772,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>56</v>
@@ -13687,10 +13783,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>56</v>
@@ -13701,64 +13797,77 @@
         <v>51</v>
       </c>
       <c r="C9" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2016</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2016</v>
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>56</v>
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2016</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2016</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>72</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{84BA2A67-2FC3-451D-BC2B-A22C158F230C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{84BA2A67-2FC3-451D-BC2B-A22C158F230C}">
       <formula1>"2016, 2021"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13931,13 +14040,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>10</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1143000</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13947,19 +14056,41 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2061" r:id="rId12" name="Check Box 13">
+            <control shapeId="2060" r:id="rId12" name="Check Box 12">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1143000</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2061" r:id="rId13" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>1143000</xdr:colOff>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13977,11 +14108,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -14055,7 +14186,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -14063,7 +14194,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -14071,7 +14202,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -14079,7 +14210,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -14087,7 +14218,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -14095,7 +14226,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -14103,7 +14234,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -14111,7 +14242,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -14119,7 +14250,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -14127,7 +14258,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -14135,7 +14266,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -14143,7 +14274,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -14151,7 +14282,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -14159,7 +14290,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -14167,7 +14298,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -14175,7 +14306,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -14183,7 +14314,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -14191,7 +14322,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -14199,7 +14330,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -14207,7 +14338,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -14215,7 +14346,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -14223,7 +14354,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -14231,7 +14362,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -14239,7 +14370,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -14247,7 +14378,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -14255,7 +14386,7 @@
         <v>35</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -14263,7 +14394,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -14271,7 +14402,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -14293,12 +14424,12 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -14306,7 +14437,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -14314,7 +14445,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -14322,7 +14453,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -14330,7 +14461,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -14338,7 +14469,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -14346,7 +14477,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -14354,7 +14485,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -14362,7 +14493,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -14370,7 +14501,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -14378,7 +14509,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -14386,7 +14517,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -14394,7 +14525,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -14402,7 +14533,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -14410,7 +14541,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -14418,7 +14549,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -14426,7 +14557,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -14434,7 +14565,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -14442,7 +14573,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -14450,7 +14581,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -14458,7 +14589,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -14466,7 +14597,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -14474,7 +14605,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -14482,7 +14613,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -14490,7 +14621,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -14498,7 +14629,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -14506,7 +14637,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -14514,7 +14645,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -14522,7 +14653,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -14530,7 +14661,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -14538,7 +14669,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -14546,7 +14677,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -14554,7 +14685,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -14562,7 +14693,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -14570,7 +14701,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -14578,7 +14709,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -14586,7 +14717,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -14594,7 +14725,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -14602,7 +14733,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -14610,7 +14741,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -14618,7 +14749,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -14626,7 +14757,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -14634,7 +14765,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -14642,7 +14773,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -14650,7 +14781,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -14658,7 +14789,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -14666,7 +14797,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -14674,7 +14805,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -14682,7 +14813,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -14690,7 +14821,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -14698,7 +14829,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -16640,7 +16771,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
@@ -16666,44 +16797,44 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -16711,7 +16842,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -16722,13 +16853,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
@@ -16736,7 +16867,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
@@ -16745,7 +16876,7 @@
         <v>2009</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>2009</v>
@@ -16753,50 +16884,50 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>2019</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <v>2019</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="D9" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -16804,16 +16935,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -16821,16 +16952,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -16838,16 +16969,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -16855,16 +16986,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -16872,16 +17003,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B15" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -16889,16 +17020,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B16" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -17016,10 +17147,10 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -17035,39 +17166,39 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>173</v>
+        <v>93</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>177</v>
+        <v>93</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="b">
@@ -17079,11 +17210,11 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>44</v>
@@ -17097,11 +17228,11 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -17109,11 +17240,11 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>44</v>
@@ -17127,10 +17258,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -17138,11 +17269,11 @@
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>44</v>
@@ -17156,10 +17287,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -17168,10 +17299,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H5" s="4">
         <v>100</v>
@@ -17185,7 +17316,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4" t="b">
         <v>1</v>
@@ -17196,11 +17327,11 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>44</v>
@@ -17214,7 +17345,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4" t="b">
         <v>1</v>
@@ -17225,11 +17356,11 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>44</v>
@@ -17243,7 +17374,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C8" s="4" t="b">
         <v>1</v>
@@ -17254,11 +17385,11 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>44</v>
@@ -17272,7 +17403,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C9" s="4" t="b">
         <v>1</v>
@@ -17283,11 +17414,11 @@
       <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>44</v>
@@ -17301,7 +17432,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4" t="b">
         <v>1</v>
@@ -17312,11 +17443,11 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>44</v>
@@ -17330,7 +17461,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="4" t="b">
         <v>1</v>
@@ -17346,7 +17477,7 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H11" s="4">
         <v>100</v>
@@ -17360,7 +17491,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="4" t="b">
         <v>1</v>
@@ -17376,7 +17507,7 @@
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H12" s="4">
         <v>100</v>
@@ -17390,7 +17521,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4" t="b">
         <v>1</v>
@@ -17406,7 +17537,7 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H13" s="4">
         <v>100</v>
@@ -17420,7 +17551,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="4" t="b">
         <v>1</v>
@@ -17436,7 +17567,7 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H14" s="4">
         <v>100</v>
@@ -17450,7 +17581,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" s="4" t="b">
         <v>1</v>
@@ -17466,7 +17597,7 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H15" s="4">
         <v>100</v>
@@ -17480,7 +17611,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C16" s="4" t="b">
         <v>1</v>
@@ -17492,12 +17623,12 @@
       <c r="E16" s="4">
         <v>-0.23</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <f>100-F11</f>
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
@@ -17511,7 +17642,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C17" s="4" t="b">
         <v>1</v>
@@ -17523,12 +17654,12 @@
       <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <f t="shared" ref="F17:F20" si="2">100-F12</f>
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -17542,7 +17673,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C18" s="4" t="b">
         <v>1</v>
@@ -17554,12 +17685,12 @@
       <c r="E18" s="4">
         <v>-0.27</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -17573,7 +17704,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C19" s="4" t="b">
         <v>1</v>
@@ -17585,12 +17716,12 @@
       <c r="E19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -17604,7 +17735,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C20" s="4" t="b">
         <v>1</v>
@@ -17616,12 +17747,12 @@
       <c r="E20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -17635,7 +17766,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="4" t="b">
         <v>1</v>
@@ -17646,11 +17777,11 @@
       <c r="E21" s="4">
         <v>0</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>44</v>
@@ -17664,7 +17795,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" s="4" t="b">
         <v>1</v>
@@ -17675,11 +17806,11 @@
       <c r="E22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>44</v>
@@ -17693,7 +17824,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="4" t="b">
         <v>1</v>
@@ -17704,11 +17835,11 @@
       <c r="E23" s="4">
         <v>0.33</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>44</v>
@@ -17722,31 +17853,31 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="8"/>
+        <v>184</v>
+      </c>
+      <c r="C24" s="9"/>
       <c r="D24" s="6">
         <v>0.7</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="9">
         <v>0.7</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="11" t="s">
         <v>44</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I24" s="6">
         <v>0</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="9">
         <v>0</v>
       </c>
     </row>
@@ -18263,10 +18394,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
@@ -18288,41 +18419,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>0.45</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2">
         <v>0.45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="11">
+      <c r="A3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="12">
         <v>0.83115000000000006</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="12">
         <v>0.83115000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -18330,13 +18461,13 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -18344,13 +18475,13 @@
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18370,7 +18501,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -18396,72 +18527,72 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
         <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -18470,7 +18601,7 @@
         <v>2018</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6">
         <v>2018</v>
@@ -18527,10 +18658,10 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.7109375" customWidth="1"/>
@@ -18555,10 +18686,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
@@ -18566,32 +18697,32 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -18600,7 +18731,7 @@
         <v>2019</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>2019</v>
@@ -18608,7 +18739,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -18617,41 +18748,41 @@
         <v>0.5</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18723,7 +18854,7 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -18732,13 +18863,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/input/Set_and_Control_Parameters.xlsx
+++ b/input/Set_and_Control_Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC9625F-0598-4EB5-890D-C3A1370DCC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD4CD7F-D53E-4EEC-86ED-A380657A7AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13335" yWindow="915" windowWidth="21495" windowHeight="14655" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralSettings" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="209">
   <si>
     <t>Country</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Activates calculations for commertial, trade and services sector.</t>
   </si>
   <si>
-    <t>Has to be active at least for the first forecast calculation.</t>
-  </si>
-  <si>
     <t>Forecast of load profiles. If false, just yearly values are calculated.</t>
   </si>
   <si>
@@ -389,12 +386,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>World calculation</t>
-  </si>
-  <si>
-    <t>If a country outside of Europe is calculated.</t>
-  </si>
-  <si>
     <t>Brunei Darussalam</t>
   </si>
   <si>
@@ -693,6 +684,9 @@
   </si>
   <si>
     <t>Linear time trend</t>
+  </si>
+  <si>
+    <t>If NUTS2 resolution is activated, population forecast has to be active at least for the first calculation.</t>
   </si>
 </sst>
 </file>
@@ -801,9 +795,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -816,6 +807,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -838,119 +832,119 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C4" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C2" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$22" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
@@ -958,215 +952,211 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp127.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp128.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp129.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp130.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp131.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp132.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp133.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp134.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp135.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp136.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp137.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp138.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp139.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$24" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$25" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$26" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$27" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$28" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$29" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$30" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$31" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$13" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$14" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$15" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$16" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$17" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$18" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$19" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$20" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$21" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$22" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$23" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$24" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$25" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$26" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$27" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$28" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$29" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$30" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$31" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$32" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$34" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$34" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$33" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$33" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$36" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$36" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$37" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$37" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$38" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$38" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$39" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$39" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$40" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$40" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1174,87 +1164,87 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$42" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$42" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$43" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$43" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$44" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$44" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$45" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$45" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$46" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$46" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$47" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$47" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$54" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$54" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$52" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$52" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$51" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$51" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$55" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$55" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$56" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$56" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$57" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$57" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$58" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$58" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$59" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$59" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$60" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$60" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$50" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$50" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$49" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$49" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$62" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$62" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$61" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$61" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$63" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1262,131 +1252,131 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$63" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$64" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$64" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$65" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$65" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$66" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$66" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$67" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$67" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$68" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$68" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$69" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$69" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$70" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$70" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$71" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$71" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$72" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$72" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$73" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$74" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$75" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$76" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$77" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$78" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$79" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$80" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$81" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$82" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$83" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$12" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$73" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$74" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$75" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$76" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$77" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$78" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$79" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$80" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$81" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$82" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$83" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$84" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$84" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$85" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$85" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$86" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$86" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$87" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$87" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$88" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$88" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$53" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$53" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$48" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$48" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1999,13 +1989,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1143000</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2085,99 +2075,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1143000</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2060" name="Check Box 12" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2060"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>Activate</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>1143000</xdr:colOff>
-          <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13655,7 +13559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -13699,10 +13603,10 @@
         <v>44</v>
       </c>
       <c r="C2" s="5">
-        <v>2018</v>
+        <v>2050</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="5">
         <v>2050</v>
@@ -13727,7 +13631,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -13741,7 +13645,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -13755,7 +13659,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>61</v>
@@ -13772,7 +13676,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>56</v>
@@ -13783,10 +13687,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>56</v>
@@ -13800,74 +13704,61 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>73</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2016</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2016</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2016</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2016</v>
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{84BA2A67-2FC3-451D-BC2B-A22C158F230C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{84BA2A67-2FC3-451D-BC2B-A22C158F230C}">
       <formula1>"2016, 2021"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14040,13 +13931,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1143000</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14056,41 +13947,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2060" r:id="rId12" name="Check Box 12">
+            <control shapeId="2061" r:id="rId12" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>9</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1143000</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2061" r:id="rId13" name="Check Box 13">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>1143000</xdr:colOff>
-                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14108,7 +13977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -14186,7 +14055,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -14194,7 +14063,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -14202,7 +14071,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -14210,7 +14079,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -14218,7 +14087,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -14226,7 +14095,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -14234,7 +14103,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -14242,7 +14111,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -14250,7 +14119,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -14258,7 +14127,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -14266,7 +14135,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -14274,7 +14143,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -14282,7 +14151,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -14290,7 +14159,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -14298,7 +14167,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -14306,7 +14175,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -14314,7 +14183,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -14322,7 +14191,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -14330,7 +14199,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -14338,7 +14207,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -14346,7 +14215,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -14354,7 +14223,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -14362,7 +14231,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -14370,7 +14239,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -14378,7 +14247,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -14386,7 +14255,7 @@
         <v>35</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -14394,7 +14263,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -14402,7 +14271,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -14424,12 +14293,12 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -14437,7 +14306,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -14445,7 +14314,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -14453,7 +14322,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -14461,7 +14330,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -14469,7 +14338,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -14477,7 +14346,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -14485,7 +14354,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -14493,7 +14362,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -14501,7 +14370,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -14509,7 +14378,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -14517,7 +14386,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -14525,7 +14394,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -14533,7 +14402,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -14541,7 +14410,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -145